--- a/datos/Malla_Curricular_LLYA.xlsx
+++ b/datos/Malla_Curricular_LLYA.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="90">
   <si>
     <t>PROGRAMA</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Aula</t>
-  </si>
-  <si>
-    <t>Laboratorio</t>
   </si>
   <si>
     <t>Tarde</t>
@@ -563,7 +560,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.13"/>
     <col customWidth="1" min="2" max="2" width="23.13"/>
-    <col customWidth="1" min="3" max="3" width="36.13"/>
+    <col customWidth="1" min="3" max="3" width="27.5"/>
     <col customWidth="1" min="4" max="4" width="15.88"/>
     <col customWidth="1" min="7" max="8" width="18.0"/>
     <col customWidth="1" min="10" max="10" width="18.25"/>
@@ -662,10 +659,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -676,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
         <v>2778.0</v>
@@ -710,10 +707,10 @@
         <v>21</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -724,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4">
         <v>5109.0</v>
@@ -758,10 +755,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -772,7 +769,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4">
         <v>1366.0</v>
@@ -806,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -817,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4">
         <v>9166.0</v>
@@ -851,7 +848,7 @@
         <v>21</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4">
         <v>1033.0</v>
@@ -877,7 +874,7 @@
         <v>2.0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
@@ -893,10 +890,10 @@
         <v>4</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -907,7 +904,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
         <v>5881.0</v>
@@ -941,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
         <v>2533.0</v>
@@ -986,10 +983,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1000,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>9584.0</v>
@@ -1018,7 +1015,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="5">
         <v>1.0</v>
@@ -1031,13 +1028,13 @@
         <v>3</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1048,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4">
         <v>6701.0</v>
@@ -1063,7 +1060,7 @@
         <v>4.0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>20</v>
@@ -1082,10 +1079,10 @@
         <v>21</v>
       </c>
       <c r="N11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -1096,7 +1093,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4">
         <v>5476.0</v>
@@ -1111,7 +1108,7 @@
         <v>3.0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
@@ -1130,10 +1127,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1144,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4">
         <v>7720.0</v>
@@ -1162,7 +1159,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="5">
         <v>4.0</v>
@@ -1175,13 +1172,13 @@
         <v>4</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -1192,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4">
         <v>7187.0</v>
@@ -1207,7 +1204,7 @@
         <v>3.0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
@@ -1226,7 +1223,7 @@
         <v>21</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1237,7 +1234,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4">
         <v>1909.0</v>
@@ -1252,7 +1249,7 @@
         <v>4.0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
@@ -1271,10 +1268,10 @@
         <v>21</v>
       </c>
       <c r="N15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1285,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4">
         <v>2003.0</v>
@@ -1300,10 +1297,10 @@
         <v>4.0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="5">
         <v>3.0</v>
@@ -1316,13 +1313,13 @@
         <v>5</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4">
         <v>9842.0</v>
@@ -1348,7 +1345,7 @@
         <v>4.0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
@@ -1367,10 +1364,10 @@
         <v>21</v>
       </c>
       <c r="N17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1381,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4">
         <v>5431.0</v>
@@ -1396,7 +1393,7 @@
         <v>3.0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
@@ -1415,10 +1412,10 @@
         <v>21</v>
       </c>
       <c r="N18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -1429,7 +1426,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4">
         <v>5448.0</v>
@@ -1463,10 +1460,10 @@
         <v>21</v>
       </c>
       <c r="N19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1477,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4">
         <v>4490.0</v>
@@ -1495,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" s="5">
         <v>2.0</v>
@@ -1508,13 +1505,13 @@
         <v>4</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1525,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4">
         <v>8330.0</v>
@@ -1543,7 +1540,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" s="5">
         <v>3.0</v>
@@ -1556,13 +1553,13 @@
         <v>3</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -1573,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="4">
         <v>3252.0</v>
@@ -1588,7 +1585,7 @@
         <v>2.0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>20</v>
@@ -1604,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1618,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="4">
         <v>4432.0</v>
@@ -1633,10 +1630,10 @@
         <v>4.0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J23" s="5">
         <v>3.0</v>
@@ -1649,13 +1646,13 @@
         <v>5</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1666,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="4">
         <v>4661.0</v>
@@ -1681,7 +1678,7 @@
         <v>4.0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
@@ -1700,10 +1697,10 @@
         <v>21</v>
       </c>
       <c r="N24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1714,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4">
         <v>3064.0</v>
@@ -1748,10 +1745,10 @@
         <v>21</v>
       </c>
       <c r="N25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1762,7 +1759,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="4">
         <v>2434.0</v>
@@ -1796,7 +1793,7 @@
         <v>21</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1807,7 +1804,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="4">
         <v>8726.0</v>
@@ -1822,7 +1819,7 @@
         <v>3.0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
@@ -1841,10 +1838,10 @@
         <v>21</v>
       </c>
       <c r="N27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1855,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="4">
         <v>8518.0</v>
@@ -1889,10 +1886,10 @@
         <v>21</v>
       </c>
       <c r="N28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1903,7 +1900,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="4">
         <v>8717.0</v>
@@ -1918,7 +1915,7 @@
         <v>4.0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
@@ -1937,10 +1934,10 @@
         <v>21</v>
       </c>
       <c r="N29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1951,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4">
         <v>4604.0</v>
@@ -1985,10 +1982,10 @@
         <v>21</v>
       </c>
       <c r="N30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -1999,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="4">
         <v>8588.0</v>
@@ -2033,7 +2030,7 @@
         <v>21</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -2044,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="4">
         <v>3079.0</v>
@@ -2062,7 +2059,7 @@
         <v>19</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" s="5">
         <v>1.0</v>
@@ -2075,13 +2072,13 @@
         <v>5</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -2092,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="4">
         <v>1512.0</v>
@@ -2126,10 +2123,10 @@
         <v>21</v>
       </c>
       <c r="N33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -2140,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4">
         <v>1793.0</v>
@@ -2174,10 +2171,10 @@
         <v>21</v>
       </c>
       <c r="N34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -2188,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4">
         <v>4202.0</v>
@@ -2222,10 +2219,10 @@
         <v>21</v>
       </c>
       <c r="N35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -2236,7 +2233,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="4">
         <v>2063.0</v>
@@ -2251,7 +2248,7 @@
         <v>4.0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
@@ -2270,10 +2267,10 @@
         <v>21</v>
       </c>
       <c r="N36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -2284,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="4">
         <v>5423.0</v>
@@ -2302,7 +2299,7 @@
         <v>19</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J37" s="5">
         <v>3.0</v>
@@ -2315,13 +2312,13 @@
         <v>3</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -2332,7 +2329,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="4">
         <v>7045.0</v>
@@ -2347,7 +2344,7 @@
         <v>3.0</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
@@ -2366,7 +2363,7 @@
         <v>21</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -2377,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="4">
         <v>4629.0</v>
@@ -2392,7 +2389,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>20</v>
@@ -2411,10 +2408,10 @@
         <v>21</v>
       </c>
       <c r="N39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -2425,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="4">
         <v>7113.0</v>
@@ -2440,7 +2437,7 @@
         <v>3.0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>20</v>
@@ -2459,10 +2456,10 @@
         <v>21</v>
       </c>
       <c r="N40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -2473,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="4">
         <v>8636.0</v>
@@ -2488,7 +2485,7 @@
         <v>3.0</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>20</v>
@@ -2507,10 +2504,10 @@
         <v>21</v>
       </c>
       <c r="N41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -2521,7 +2518,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="4">
         <v>6776.0</v>
@@ -2555,10 +2552,10 @@
         <v>21</v>
       </c>
       <c r="N42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -2569,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="4">
         <v>7627.0</v>
@@ -2584,7 +2581,7 @@
         <v>4.0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>20</v>
@@ -2603,10 +2600,10 @@
         <v>21</v>
       </c>
       <c r="N43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -2617,7 +2614,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="4">
         <v>1822.0</v>
@@ -2651,10 +2648,10 @@
         <v>21</v>
       </c>
       <c r="N44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -2665,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="4">
         <v>7794.0</v>
@@ -2699,7 +2696,7 @@
         <v>21</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -2710,7 +2707,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="4">
         <v>9734.0</v>
@@ -2725,7 +2722,7 @@
         <v>3.0</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>20</v>
@@ -2744,10 +2741,10 @@
         <v>21</v>
       </c>
       <c r="N46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -2758,7 +2755,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4">
         <v>5080.0</v>
@@ -2773,7 +2770,7 @@
         <v>3.0</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>20</v>
@@ -2792,10 +2789,10 @@
         <v>21</v>
       </c>
       <c r="N47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -2806,7 +2803,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="4">
         <v>3762.0</v>
@@ -2840,10 +2837,10 @@
         <v>21</v>
       </c>
       <c r="N48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -2854,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="4">
         <v>9807.0</v>
@@ -2888,10 +2885,10 @@
         <v>21</v>
       </c>
       <c r="N49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -2902,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="4">
         <v>7773.0</v>
@@ -2936,7 +2933,7 @@
         <v>21</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -2947,7 +2944,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="4">
         <v>1240.0</v>
@@ -2981,10 +2978,10 @@
         <v>21</v>
       </c>
       <c r="N51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -2995,7 +2992,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="4">
         <v>2632.0</v>
@@ -3013,7 +3010,7 @@
         <v>19</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J52" s="5">
         <v>2.0</v>
@@ -3026,13 +3023,13 @@
         <v>4</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -3043,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="4">
         <v>6434.0</v>
@@ -3058,7 +3055,7 @@
         <v>3.0</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>20</v>
@@ -3077,10 +3074,10 @@
         <v>21</v>
       </c>
       <c r="N53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="54">
@@ -3091,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="4">
         <v>1804.0</v>
@@ -3106,7 +3103,7 @@
         <v>2.0</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>20</v>
@@ -3122,10 +3119,10 @@
         <v>4</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -3136,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="4">
         <v>9935.0</v>
@@ -3151,7 +3148,7 @@
         <v>3.0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>20</v>
@@ -3170,10 +3167,10 @@
         <v>21</v>
       </c>
       <c r="N55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="56">
@@ -3184,13 +3181,13 @@
         <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="4">
         <v>5166.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56" s="5">
         <v>8.0</v>
@@ -3202,7 +3199,7 @@
         <v>19</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J56" s="5">
         <v>1.0</v>
@@ -3215,13 +3212,13 @@
         <v>3</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -3232,7 +3229,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="4">
         <v>6050.0</v>
@@ -3247,7 +3244,7 @@
         <v>4.0</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>20</v>
@@ -3266,10 +3263,10 @@
         <v>21</v>
       </c>
       <c r="N57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -3280,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="4">
         <v>5079.0</v>
@@ -3295,10 +3292,10 @@
         <v>3.0</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J58" s="5">
         <v>2.0</v>
@@ -3311,13 +3308,13 @@
         <v>4</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -3328,7 +3325,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="4">
         <v>3312.0</v>
@@ -3362,10 +3359,10 @@
         <v>21</v>
       </c>
       <c r="N59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -3376,7 +3373,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="4">
         <v>1087.0</v>
@@ -3394,7 +3391,7 @@
         <v>19</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J60" s="5">
         <v>3.0</v>
@@ -3407,13 +3404,13 @@
         <v>5</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
@@ -3424,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" s="4">
         <v>3332.0</v>
@@ -3439,7 +3436,7 @@
         <v>9.0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>20</v>
@@ -3458,10 +3455,10 @@
         <v>21</v>
       </c>
       <c r="N61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -3472,7 +3469,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="4">
         <v>1490.0</v>
@@ -3506,10 +3503,10 @@
         <v>21</v>
       </c>
       <c r="N62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -3520,7 +3517,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D63" s="4">
         <v>6053.0</v>
@@ -3538,7 +3535,7 @@
         <v>19</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J63" s="5">
         <v>2.0</v>
@@ -3551,13 +3548,13 @@
         <v>4</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -3568,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" s="4">
         <v>9845.0</v>
@@ -3602,10 +3599,10 @@
         <v>21</v>
       </c>
       <c r="N64" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -3616,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D65" s="4">
         <v>8373.0</v>
@@ -3634,7 +3631,7 @@
         <v>19</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J65" s="5">
         <v>3.0</v>
@@ -3647,13 +3644,13 @@
         <v>5</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -3664,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66" s="4">
         <v>3242.0</v>
@@ -3679,7 +3676,7 @@
         <v>12.0</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>20</v>
@@ -3698,10 +3695,10 @@
         <v>21</v>
       </c>
       <c r="N66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="67">

--- a/datos/Malla_Curricular_LLYA.xlsx
+++ b/datos/Malla_Curricular_LLYA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\practicante.academi\Downloads\proyecto_horas_aula_modular\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analsis_coding\estimacion_infraestructura\Consumo_horas_educacion_secundaria\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E407127-F117-4506-AE32-9F255080A154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Malla_Curricular_LLYM" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Malla_Curricular_LLYM!$A$1:$O$66</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -301,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -314,12 +329,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -570,33 +587,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:M1048576"/>
+      <selection activeCell="C15" sqref="C15:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" customWidth="1"/>
     <col min="14" max="14" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -691,7 +708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -739,7 +756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -787,7 +804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -832,7 +849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -877,7 +894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -922,7 +939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -967,7 +984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1111,7 +1128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1252,7 +1269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1348,7 +1365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1396,7 +1413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1492,7 +1509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1588,7 +1605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1633,7 +1650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1681,7 +1698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1822,7 +1839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +1935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1966,7 +1983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -2014,7 +2031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2059,7 +2076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -2107,7 +2124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -2155,7 +2172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2203,7 +2220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +2268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2347,7 +2364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -2392,7 +2409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -2440,7 +2457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -2488,7 +2505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -2536,7 +2553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -2584,7 +2601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
@@ -2680,7 +2697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -2773,7 +2790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -2821,7 +2838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -2869,7 +2886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -2917,7 +2934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -2962,7 +2979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -3010,7 +3027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>15</v>
       </c>
@@ -3058,7 +3075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -3106,7 +3123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>15</v>
       </c>
@@ -3151,7 +3168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
@@ -3199,7 +3216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>15</v>
       </c>
@@ -3247,7 +3264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -3295,7 +3312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>15</v>
       </c>
@@ -3343,7 +3360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -3391,7 +3408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>15</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>15</v>
       </c>
@@ -3487,7 +3504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>15</v>
       </c>
@@ -3631,7 +3648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>15</v>
       </c>
@@ -3679,7 +3696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>15</v>
       </c>
@@ -3727,7 +3744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -3740,7 +3757,7 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3753,7 +3770,7 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -3766,7 +3783,7 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -3779,7 +3796,7 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -3792,7 +3809,7 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -3805,7 +3822,7 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -3818,7 +3835,7 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -3831,7 +3848,7 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -3844,7 +3861,7 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -3857,7 +3874,7 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -3870,7 +3887,7 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -3883,7 +3900,7 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -3896,7 +3913,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -3909,7 +3926,7 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -3922,7 +3939,7 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -3935,7 +3952,7 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -3948,7 +3965,7 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -3961,7 +3978,7 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -3974,7 +3991,7 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -3987,7 +4004,7 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4000,7 +4017,7 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -4013,7 +4030,7 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4026,7 +4043,7 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
     </row>
-    <row r="90" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -4039,7 +4056,7 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4052,7 +4069,7 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -4065,7 +4082,7 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4078,7 +4095,7 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
     </row>
-    <row r="94" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -4091,7 +4108,7 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
     </row>
-    <row r="95" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -4104,7 +4121,7 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -4117,7 +4134,7 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -4130,7 +4147,7 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -4143,7 +4160,7 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -4156,7 +4173,7 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
     </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -4169,7 +4186,7 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
     </row>
-    <row r="101" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4182,7 +4199,7 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
     </row>
-    <row r="102" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -4195,7 +4212,7 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
     </row>
-    <row r="103" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -4208,7 +4225,7 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
     </row>
-    <row r="104" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -4221,7 +4238,7 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
     </row>
-    <row r="105" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -4234,7 +4251,7 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
     </row>
-    <row r="106" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -4247,7 +4264,7 @@
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
     </row>
-    <row r="107" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -4260,7 +4277,7 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
     </row>
-    <row r="108" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -4273,7 +4290,7 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
     </row>
-    <row r="109" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -4286,7 +4303,7 @@
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
     </row>
-    <row r="110" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -4299,7 +4316,7 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
     </row>
-    <row r="111" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -4312,7 +4329,7 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
     </row>
-    <row r="112" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -4325,7 +4342,7 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
     </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -4338,7 +4355,7 @@
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
     </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -4351,7 +4368,7 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
     </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -4364,7 +4381,7 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
     </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -4377,7 +4394,7 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
     </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -4390,7 +4407,7 @@
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
     </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -4403,7 +4420,7 @@
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
     </row>
-    <row r="119" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -4416,7 +4433,7 @@
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
     </row>
-    <row r="120" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -4429,7 +4446,7 @@
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
     </row>
-    <row r="121" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -4442,7 +4459,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -4455,7 +4472,7 @@
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
     </row>
-    <row r="123" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -4468,7 +4485,7 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
     </row>
-    <row r="124" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -4481,7 +4498,7 @@
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
     </row>
-    <row r="125" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4494,7 +4511,7 @@
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
     </row>
-    <row r="126" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -4507,7 +4524,7 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
     </row>
-    <row r="127" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -4520,7 +4537,7 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
     </row>
-    <row r="128" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -4533,7 +4550,7 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
     </row>
-    <row r="129" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -4546,7 +4563,7 @@
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
     </row>
-    <row r="130" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -4559,7 +4576,7 @@
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
     </row>
-    <row r="131" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -4572,7 +4589,7 @@
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
     </row>
-    <row r="132" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -4585,7 +4602,7 @@
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
     </row>
-    <row r="133" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -4598,7 +4615,7 @@
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
     </row>
-    <row r="134" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -4611,7 +4628,7 @@
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
     </row>
-    <row r="135" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -4624,7 +4641,7 @@
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
     </row>
-    <row r="136" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -4637,7 +4654,7 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
     </row>
-    <row r="137" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -4650,7 +4667,7 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
     </row>
-    <row r="138" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -4663,7 +4680,7 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
     </row>
-    <row r="139" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -4676,7 +4693,7 @@
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
     </row>
-    <row r="140" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -4689,7 +4706,7 @@
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
     </row>
-    <row r="141" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -4702,7 +4719,7 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
     </row>
-    <row r="142" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -4715,7 +4732,7 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
     </row>
-    <row r="143" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -4728,7 +4745,7 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -4741,7 +4758,7 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -4754,7 +4771,7 @@
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -4767,7 +4784,7 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -4780,7 +4797,7 @@
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -4793,7 +4810,7 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -4806,7 +4823,7 @@
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -4819,7 +4836,7 @@
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -4832,7 +4849,7 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -4845,7 +4862,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -4858,7 +4875,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
     </row>
-    <row r="154" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -4871,7 +4888,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="155" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -4884,7 +4901,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -4897,7 +4914,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -4910,7 +4927,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -4923,7 +4940,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -4936,7 +4953,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -4949,7 +4966,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -4962,7 +4979,7 @@
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -4975,7 +4992,7 @@
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -4988,7 +5005,7 @@
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -5001,7 +5018,7 @@
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -5014,7 +5031,7 @@
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -5027,7 +5044,7 @@
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -5040,7 +5057,7 @@
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -5053,7 +5070,7 @@
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -5066,7 +5083,7 @@
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -5079,7 +5096,7 @@
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -5092,7 +5109,7 @@
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -5105,7 +5122,7 @@
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -5118,7 +5135,7 @@
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -5131,7 +5148,7 @@
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -5144,7 +5161,7 @@
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
     </row>
-    <row r="176" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -5157,7 +5174,7 @@
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
     </row>
-    <row r="177" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -5170,7 +5187,7 @@
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
     </row>
-    <row r="178" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -5183,7 +5200,7 @@
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
     </row>
-    <row r="179" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -5196,7 +5213,7 @@
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
     </row>
-    <row r="180" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -5209,7 +5226,7 @@
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
     </row>
-    <row r="181" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -5222,7 +5239,7 @@
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
     </row>
-    <row r="182" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -5235,7 +5252,7 @@
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
     </row>
-    <row r="183" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -5248,7 +5265,7 @@
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
     </row>
-    <row r="184" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -5261,7 +5278,7 @@
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
     </row>
-    <row r="185" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -5274,7 +5291,7 @@
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
     </row>
-    <row r="186" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -5287,7 +5304,7 @@
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
     </row>
-    <row r="187" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -5300,7 +5317,7 @@
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
     </row>
-    <row r="188" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -5313,7 +5330,7 @@
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
     </row>
-    <row r="189" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -5326,7 +5343,7 @@
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
     </row>
-    <row r="190" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -5339,7 +5356,7 @@
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
     </row>
-    <row r="191" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -5352,7 +5369,7 @@
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
     </row>
-    <row r="192" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -5365,7 +5382,7 @@
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
     </row>
-    <row r="193" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -5378,7 +5395,7 @@
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
     </row>
-    <row r="194" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -5391,7 +5408,7 @@
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
     </row>
-    <row r="195" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -5404,7 +5421,7 @@
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
     </row>
-    <row r="196" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -5417,7 +5434,7 @@
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
     </row>
-    <row r="197" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -5430,7 +5447,7 @@
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
     </row>
-    <row r="198" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -5443,7 +5460,7 @@
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
     </row>
-    <row r="199" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -5456,7 +5473,7 @@
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
     </row>
-    <row r="200" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -5469,7 +5486,7 @@
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
     </row>
-    <row r="201" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -5482,7 +5499,7 @@
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
     </row>
-    <row r="202" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -5495,7 +5512,7 @@
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
     </row>
-    <row r="203" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -5508,7 +5525,7 @@
       <c r="N203" s="4"/>
       <c r="O203" s="4"/>
     </row>
-    <row r="204" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -5521,7 +5538,7 @@
       <c r="N204" s="4"/>
       <c r="O204" s="4"/>
     </row>
-    <row r="205" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -5534,7 +5551,7 @@
       <c r="N205" s="4"/>
       <c r="O205" s="4"/>
     </row>
-    <row r="206" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -5547,7 +5564,7 @@
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
     </row>
-    <row r="207" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -5560,7 +5577,7 @@
       <c r="N207" s="4"/>
       <c r="O207" s="4"/>
     </row>
-    <row r="208" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -5573,7 +5590,7 @@
       <c r="N208" s="4"/>
       <c r="O208" s="4"/>
     </row>
-    <row r="209" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -5586,7 +5603,7 @@
       <c r="N209" s="4"/>
       <c r="O209" s="4"/>
     </row>
-    <row r="210" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -5599,7 +5616,7 @@
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
     </row>
-    <row r="211" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -5612,7 +5629,7 @@
       <c r="N211" s="4"/>
       <c r="O211" s="4"/>
     </row>
-    <row r="212" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -5625,7 +5642,7 @@
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
     </row>
-    <row r="213" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -5638,7 +5655,7 @@
       <c r="N213" s="4"/>
       <c r="O213" s="4"/>
     </row>
-    <row r="214" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -5651,7 +5668,7 @@
       <c r="N214" s="4"/>
       <c r="O214" s="4"/>
     </row>
-    <row r="215" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -5664,7 +5681,7 @@
       <c r="N215" s="4"/>
       <c r="O215" s="4"/>
     </row>
-    <row r="216" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -5677,7 +5694,7 @@
       <c r="N216" s="4"/>
       <c r="O216" s="4"/>
     </row>
-    <row r="217" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -5690,7 +5707,7 @@
       <c r="N217" s="4"/>
       <c r="O217" s="4"/>
     </row>
-    <row r="218" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -5703,7 +5720,7 @@
       <c r="N218" s="4"/>
       <c r="O218" s="4"/>
     </row>
-    <row r="219" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -5716,7 +5733,7 @@
       <c r="N219" s="4"/>
       <c r="O219" s="4"/>
     </row>
-    <row r="220" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -5729,7 +5746,7 @@
       <c r="N220" s="4"/>
       <c r="O220" s="4"/>
     </row>
-    <row r="221" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -5742,7 +5759,7 @@
       <c r="N221" s="4"/>
       <c r="O221" s="4"/>
     </row>
-    <row r="222" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
@@ -5755,7 +5772,7 @@
       <c r="N222" s="4"/>
       <c r="O222" s="4"/>
     </row>
-    <row r="223" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
@@ -5768,7 +5785,7 @@
       <c r="N223" s="4"/>
       <c r="O223" s="4"/>
     </row>
-    <row r="224" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -5781,7 +5798,7 @@
       <c r="N224" s="4"/>
       <c r="O224" s="4"/>
     </row>
-    <row r="225" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
@@ -5794,7 +5811,7 @@
       <c r="N225" s="4"/>
       <c r="O225" s="4"/>
     </row>
-    <row r="226" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
@@ -5807,7 +5824,7 @@
       <c r="N226" s="4"/>
       <c r="O226" s="4"/>
     </row>
-    <row r="227" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -5820,7 +5837,7 @@
       <c r="N227" s="4"/>
       <c r="O227" s="4"/>
     </row>
-    <row r="228" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
@@ -5833,7 +5850,7 @@
       <c r="N228" s="4"/>
       <c r="O228" s="4"/>
     </row>
-    <row r="229" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
@@ -5846,7 +5863,7 @@
       <c r="N229" s="4"/>
       <c r="O229" s="4"/>
     </row>
-    <row r="230" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -5859,7 +5876,7 @@
       <c r="N230" s="4"/>
       <c r="O230" s="4"/>
     </row>
-    <row r="231" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
@@ -5872,7 +5889,7 @@
       <c r="N231" s="4"/>
       <c r="O231" s="4"/>
     </row>
-    <row r="232" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
@@ -5885,7 +5902,7 @@
       <c r="N232" s="4"/>
       <c r="O232" s="4"/>
     </row>
-    <row r="233" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
@@ -5898,7 +5915,7 @@
       <c r="N233" s="4"/>
       <c r="O233" s="4"/>
     </row>
-    <row r="234" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
@@ -5911,7 +5928,7 @@
       <c r="N234" s="4"/>
       <c r="O234" s="4"/>
     </row>
-    <row r="235" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
@@ -5924,7 +5941,7 @@
       <c r="N235" s="4"/>
       <c r="O235" s="4"/>
     </row>
-    <row r="236" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
@@ -5937,7 +5954,7 @@
       <c r="N236" s="4"/>
       <c r="O236" s="4"/>
     </row>
-    <row r="237" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -5950,7 +5967,7 @@
       <c r="N237" s="4"/>
       <c r="O237" s="4"/>
     </row>
-    <row r="238" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
@@ -5963,7 +5980,7 @@
       <c r="N238" s="4"/>
       <c r="O238" s="4"/>
     </row>
-    <row r="239" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
@@ -5976,7 +5993,7 @@
       <c r="N239" s="4"/>
       <c r="O239" s="4"/>
     </row>
-    <row r="240" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
@@ -5989,7 +6006,7 @@
       <c r="N240" s="4"/>
       <c r="O240" s="4"/>
     </row>
-    <row r="241" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
@@ -6002,7 +6019,7 @@
       <c r="N241" s="4"/>
       <c r="O241" s="4"/>
     </row>
-    <row r="242" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
@@ -6015,7 +6032,7 @@
       <c r="N242" s="4"/>
       <c r="O242" s="4"/>
     </row>
-    <row r="243" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
@@ -6028,7 +6045,7 @@
       <c r="N243" s="4"/>
       <c r="O243" s="4"/>
     </row>
-    <row r="244" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
@@ -6041,7 +6058,7 @@
       <c r="N244" s="4"/>
       <c r="O244" s="4"/>
     </row>
-    <row r="245" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
@@ -6054,7 +6071,7 @@
       <c r="N245" s="4"/>
       <c r="O245" s="4"/>
     </row>
-    <row r="246" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
@@ -6067,7 +6084,7 @@
       <c r="N246" s="4"/>
       <c r="O246" s="4"/>
     </row>
-    <row r="247" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
@@ -6080,7 +6097,7 @@
       <c r="N247" s="4"/>
       <c r="O247" s="4"/>
     </row>
-    <row r="248" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
@@ -6093,7 +6110,7 @@
       <c r="N248" s="4"/>
       <c r="O248" s="4"/>
     </row>
-    <row r="249" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -6106,7 +6123,7 @@
       <c r="N249" s="4"/>
       <c r="O249" s="4"/>
     </row>
-    <row r="250" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -6119,7 +6136,7 @@
       <c r="N250" s="4"/>
       <c r="O250" s="4"/>
     </row>
-    <row r="251" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
@@ -6132,7 +6149,7 @@
       <c r="N251" s="4"/>
       <c r="O251" s="4"/>
     </row>
-    <row r="252" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
@@ -6145,7 +6162,7 @@
       <c r="N252" s="4"/>
       <c r="O252" s="4"/>
     </row>
-    <row r="253" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
@@ -6158,7 +6175,7 @@
       <c r="N253" s="4"/>
       <c r="O253" s="4"/>
     </row>
-    <row r="254" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
@@ -6171,7 +6188,7 @@
       <c r="N254" s="4"/>
       <c r="O254" s="4"/>
     </row>
-    <row r="255" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
@@ -6184,7 +6201,7 @@
       <c r="N255" s="4"/>
       <c r="O255" s="4"/>
     </row>
-    <row r="256" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
@@ -6197,7 +6214,7 @@
       <c r="N256" s="4"/>
       <c r="O256" s="4"/>
     </row>
-    <row r="257" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
@@ -6210,7 +6227,7 @@
       <c r="N257" s="4"/>
       <c r="O257" s="4"/>
     </row>
-    <row r="258" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
@@ -6223,7 +6240,7 @@
       <c r="N258" s="4"/>
       <c r="O258" s="4"/>
     </row>
-    <row r="259" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
@@ -6236,7 +6253,7 @@
       <c r="N259" s="4"/>
       <c r="O259" s="4"/>
     </row>
-    <row r="260" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
@@ -6249,7 +6266,7 @@
       <c r="N260" s="4"/>
       <c r="O260" s="4"/>
     </row>
-    <row r="261" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
@@ -6262,7 +6279,7 @@
       <c r="N261" s="4"/>
       <c r="O261" s="4"/>
     </row>
-    <row r="262" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
@@ -6275,7 +6292,7 @@
       <c r="N262" s="4"/>
       <c r="O262" s="4"/>
     </row>
-    <row r="263" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
@@ -6288,7 +6305,7 @@
       <c r="N263" s="4"/>
       <c r="O263" s="4"/>
     </row>
-    <row r="264" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
@@ -6301,7 +6318,7 @@
       <c r="N264" s="4"/>
       <c r="O264" s="4"/>
     </row>
-    <row r="265" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
@@ -6314,7 +6331,7 @@
       <c r="N265" s="4"/>
       <c r="O265" s="4"/>
     </row>
-    <row r="266" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
@@ -6327,7 +6344,7 @@
       <c r="N266" s="4"/>
       <c r="O266" s="4"/>
     </row>
-    <row r="267" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
@@ -6340,7 +6357,7 @@
       <c r="N267" s="4"/>
       <c r="O267" s="4"/>
     </row>
-    <row r="268" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
@@ -6353,7 +6370,7 @@
       <c r="N268" s="4"/>
       <c r="O268" s="4"/>
     </row>
-    <row r="269" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
@@ -6366,7 +6383,7 @@
       <c r="N269" s="4"/>
       <c r="O269" s="4"/>
     </row>
-    <row r="270" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
@@ -6379,7 +6396,7 @@
       <c r="N270" s="4"/>
       <c r="O270" s="4"/>
     </row>
-    <row r="271" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
@@ -6392,7 +6409,7 @@
       <c r="N271" s="4"/>
       <c r="O271" s="4"/>
     </row>
-    <row r="272" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
@@ -6405,7 +6422,7 @@
       <c r="N272" s="4"/>
       <c r="O272" s="4"/>
     </row>
-    <row r="273" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
@@ -6418,7 +6435,7 @@
       <c r="N273" s="4"/>
       <c r="O273" s="4"/>
     </row>
-    <row r="274" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
@@ -6431,7 +6448,7 @@
       <c r="N274" s="4"/>
       <c r="O274" s="4"/>
     </row>
-    <row r="275" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
@@ -6444,7 +6461,7 @@
       <c r="N275" s="4"/>
       <c r="O275" s="4"/>
     </row>
-    <row r="276" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
@@ -6457,7 +6474,7 @@
       <c r="N276" s="4"/>
       <c r="O276" s="4"/>
     </row>
-    <row r="277" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
@@ -6470,7 +6487,7 @@
       <c r="N277" s="4"/>
       <c r="O277" s="4"/>
     </row>
-    <row r="278" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
@@ -6483,7 +6500,7 @@
       <c r="N278" s="4"/>
       <c r="O278" s="4"/>
     </row>
-    <row r="279" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
@@ -6496,7 +6513,7 @@
       <c r="N279" s="4"/>
       <c r="O279" s="4"/>
     </row>
-    <row r="280" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
@@ -6509,7 +6526,7 @@
       <c r="N280" s="4"/>
       <c r="O280" s="4"/>
     </row>
-    <row r="281" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
@@ -6522,7 +6539,7 @@
       <c r="N281" s="4"/>
       <c r="O281" s="4"/>
     </row>
-    <row r="282" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
@@ -6535,7 +6552,7 @@
       <c r="N282" s="4"/>
       <c r="O282" s="4"/>
     </row>
-    <row r="283" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
@@ -6548,7 +6565,7 @@
       <c r="N283" s="4"/>
       <c r="O283" s="4"/>
     </row>
-    <row r="284" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
@@ -6561,7 +6578,7 @@
       <c r="N284" s="4"/>
       <c r="O284" s="4"/>
     </row>
-    <row r="285" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
@@ -6574,7 +6591,7 @@
       <c r="N285" s="4"/>
       <c r="O285" s="4"/>
     </row>
-    <row r="286" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
@@ -6587,7 +6604,7 @@
       <c r="N286" s="4"/>
       <c r="O286" s="4"/>
     </row>
-    <row r="287" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
@@ -6600,7 +6617,7 @@
       <c r="N287" s="4"/>
       <c r="O287" s="4"/>
     </row>
-    <row r="288" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
@@ -6613,7 +6630,7 @@
       <c r="N288" s="4"/>
       <c r="O288" s="4"/>
     </row>
-    <row r="289" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
@@ -6626,7 +6643,7 @@
       <c r="N289" s="4"/>
       <c r="O289" s="4"/>
     </row>
-    <row r="290" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
@@ -6639,7 +6656,7 @@
       <c r="N290" s="4"/>
       <c r="O290" s="4"/>
     </row>
-    <row r="291" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
@@ -6652,7 +6669,7 @@
       <c r="N291" s="4"/>
       <c r="O291" s="4"/>
     </row>
-    <row r="292" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
@@ -6665,7 +6682,7 @@
       <c r="N292" s="4"/>
       <c r="O292" s="4"/>
     </row>
-    <row r="293" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
@@ -6678,7 +6695,7 @@
       <c r="N293" s="4"/>
       <c r="O293" s="4"/>
     </row>
-    <row r="294" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
@@ -6691,7 +6708,7 @@
       <c r="N294" s="4"/>
       <c r="O294" s="4"/>
     </row>
-    <row r="295" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
@@ -6704,7 +6721,7 @@
       <c r="N295" s="4"/>
       <c r="O295" s="4"/>
     </row>
-    <row r="296" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
@@ -6717,7 +6734,7 @@
       <c r="N296" s="4"/>
       <c r="O296" s="4"/>
     </row>
-    <row r="297" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
@@ -6730,7 +6747,7 @@
       <c r="N297" s="4"/>
       <c r="O297" s="4"/>
     </row>
-    <row r="298" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
@@ -6743,7 +6760,7 @@
       <c r="N298" s="4"/>
       <c r="O298" s="4"/>
     </row>
-    <row r="299" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
@@ -6756,7 +6773,7 @@
       <c r="N299" s="4"/>
       <c r="O299" s="4"/>
     </row>
-    <row r="300" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
@@ -6769,7 +6786,7 @@
       <c r="N300" s="4"/>
       <c r="O300" s="4"/>
     </row>
-    <row r="301" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
@@ -6782,7 +6799,7 @@
       <c r="N301" s="4"/>
       <c r="O301" s="4"/>
     </row>
-    <row r="302" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
@@ -6795,7 +6812,7 @@
       <c r="N302" s="4"/>
       <c r="O302" s="4"/>
     </row>
-    <row r="303" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
@@ -6808,7 +6825,7 @@
       <c r="N303" s="4"/>
       <c r="O303" s="4"/>
     </row>
-    <row r="304" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
@@ -6821,7 +6838,7 @@
       <c r="N304" s="4"/>
       <c r="O304" s="4"/>
     </row>
-    <row r="305" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
@@ -6834,7 +6851,7 @@
       <c r="N305" s="4"/>
       <c r="O305" s="4"/>
     </row>
-    <row r="306" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
@@ -6847,7 +6864,7 @@
       <c r="N306" s="4"/>
       <c r="O306" s="4"/>
     </row>
-    <row r="307" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
@@ -6860,7 +6877,7 @@
       <c r="N307" s="4"/>
       <c r="O307" s="4"/>
     </row>
-    <row r="308" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
@@ -6873,7 +6890,7 @@
       <c r="N308" s="4"/>
       <c r="O308" s="4"/>
     </row>
-    <row r="309" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
@@ -6886,7 +6903,7 @@
       <c r="N309" s="4"/>
       <c r="O309" s="4"/>
     </row>
-    <row r="310" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
@@ -6899,7 +6916,7 @@
       <c r="N310" s="4"/>
       <c r="O310" s="4"/>
     </row>
-    <row r="311" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
@@ -6912,7 +6929,7 @@
       <c r="N311" s="4"/>
       <c r="O311" s="4"/>
     </row>
-    <row r="312" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
@@ -6925,7 +6942,7 @@
       <c r="N312" s="4"/>
       <c r="O312" s="4"/>
     </row>
-    <row r="313" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
@@ -6938,7 +6955,7 @@
       <c r="N313" s="4"/>
       <c r="O313" s="4"/>
     </row>
-    <row r="314" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
@@ -6951,7 +6968,7 @@
       <c r="N314" s="4"/>
       <c r="O314" s="4"/>
     </row>
-    <row r="315" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -6964,7 +6981,7 @@
       <c r="N315" s="4"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -6977,7 +6994,7 @@
       <c r="N316" s="4"/>
       <c r="O316" s="4"/>
     </row>
-    <row r="317" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -6990,7 +7007,7 @@
       <c r="N317" s="4"/>
       <c r="O317" s="4"/>
     </row>
-    <row r="318" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -7003,7 +7020,7 @@
       <c r="N318" s="4"/>
       <c r="O318" s="4"/>
     </row>
-    <row r="319" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
@@ -7016,7 +7033,7 @@
       <c r="N319" s="4"/>
       <c r="O319" s="4"/>
     </row>
-    <row r="320" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -7029,7 +7046,7 @@
       <c r="N320" s="4"/>
       <c r="O320" s="4"/>
     </row>
-    <row r="321" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
@@ -7042,7 +7059,7 @@
       <c r="N321" s="4"/>
       <c r="O321" s="4"/>
     </row>
-    <row r="322" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
@@ -7055,7 +7072,7 @@
       <c r="N322" s="4"/>
       <c r="O322" s="4"/>
     </row>
-    <row r="323" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
@@ -7068,7 +7085,7 @@
       <c r="N323" s="4"/>
       <c r="O323" s="4"/>
     </row>
-    <row r="324" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
@@ -7081,7 +7098,7 @@
       <c r="N324" s="4"/>
       <c r="O324" s="4"/>
     </row>
-    <row r="325" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
@@ -7094,7 +7111,7 @@
       <c r="N325" s="4"/>
       <c r="O325" s="4"/>
     </row>
-    <row r="326" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
@@ -7107,7 +7124,7 @@
       <c r="N326" s="4"/>
       <c r="O326" s="4"/>
     </row>
-    <row r="327" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
@@ -7120,7 +7137,7 @@
       <c r="N327" s="4"/>
       <c r="O327" s="4"/>
     </row>
-    <row r="328" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
@@ -7133,7 +7150,7 @@
       <c r="N328" s="4"/>
       <c r="O328" s="4"/>
     </row>
-    <row r="329" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
@@ -7146,7 +7163,7 @@
       <c r="N329" s="4"/>
       <c r="O329" s="4"/>
     </row>
-    <row r="330" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
@@ -7159,7 +7176,7 @@
       <c r="N330" s="4"/>
       <c r="O330" s="4"/>
     </row>
-    <row r="331" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
@@ -7172,7 +7189,7 @@
       <c r="N331" s="4"/>
       <c r="O331" s="4"/>
     </row>
-    <row r="332" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
@@ -7185,7 +7202,7 @@
       <c r="N332" s="4"/>
       <c r="O332" s="4"/>
     </row>
-    <row r="333" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
@@ -7198,7 +7215,7 @@
       <c r="N333" s="4"/>
       <c r="O333" s="4"/>
     </row>
-    <row r="334" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
@@ -7211,7 +7228,7 @@
       <c r="N334" s="4"/>
       <c r="O334" s="4"/>
     </row>
-    <row r="335" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
@@ -7224,7 +7241,7 @@
       <c r="N335" s="4"/>
       <c r="O335" s="4"/>
     </row>
-    <row r="336" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
@@ -7237,7 +7254,7 @@
       <c r="N336" s="4"/>
       <c r="O336" s="4"/>
     </row>
-    <row r="337" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
@@ -7250,7 +7267,7 @@
       <c r="N337" s="4"/>
       <c r="O337" s="4"/>
     </row>
-    <row r="338" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
@@ -7263,7 +7280,7 @@
       <c r="N338" s="4"/>
       <c r="O338" s="4"/>
     </row>
-    <row r="339" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
@@ -7276,7 +7293,7 @@
       <c r="N339" s="4"/>
       <c r="O339" s="4"/>
     </row>
-    <row r="340" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
@@ -7289,7 +7306,7 @@
       <c r="N340" s="4"/>
       <c r="O340" s="4"/>
     </row>
-    <row r="341" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
@@ -7302,7 +7319,7 @@
       <c r="N341" s="4"/>
       <c r="O341" s="4"/>
     </row>
-    <row r="342" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
@@ -7315,7 +7332,7 @@
       <c r="N342" s="4"/>
       <c r="O342" s="4"/>
     </row>
-    <row r="343" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
@@ -7328,7 +7345,7 @@
       <c r="N343" s="4"/>
       <c r="O343" s="4"/>
     </row>
-    <row r="344" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
@@ -7341,7 +7358,7 @@
       <c r="N344" s="4"/>
       <c r="O344" s="4"/>
     </row>
-    <row r="345" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
@@ -7354,7 +7371,7 @@
       <c r="N345" s="4"/>
       <c r="O345" s="4"/>
     </row>
-    <row r="346" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
@@ -7367,7 +7384,7 @@
       <c r="N346" s="4"/>
       <c r="O346" s="4"/>
     </row>
-    <row r="347" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
@@ -7380,7 +7397,7 @@
       <c r="N347" s="4"/>
       <c r="O347" s="4"/>
     </row>
-    <row r="348" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
@@ -7393,7 +7410,7 @@
       <c r="N348" s="4"/>
       <c r="O348" s="4"/>
     </row>
-    <row r="349" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
@@ -7406,7 +7423,7 @@
       <c r="N349" s="4"/>
       <c r="O349" s="4"/>
     </row>
-    <row r="350" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
@@ -7419,7 +7436,7 @@
       <c r="N350" s="4"/>
       <c r="O350" s="4"/>
     </row>
-    <row r="351" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
@@ -7432,7 +7449,7 @@
       <c r="N351" s="4"/>
       <c r="O351" s="4"/>
     </row>
-    <row r="352" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
@@ -7445,7 +7462,7 @@
       <c r="N352" s="4"/>
       <c r="O352" s="4"/>
     </row>
-    <row r="353" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
@@ -7458,7 +7475,7 @@
       <c r="N353" s="4"/>
       <c r="O353" s="4"/>
     </row>
-    <row r="354" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
@@ -7471,7 +7488,7 @@
       <c r="N354" s="4"/>
       <c r="O354" s="4"/>
     </row>
-    <row r="355" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
@@ -7484,7 +7501,7 @@
       <c r="N355" s="4"/>
       <c r="O355" s="4"/>
     </row>
-    <row r="356" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
@@ -7497,7 +7514,7 @@
       <c r="N356" s="4"/>
       <c r="O356" s="4"/>
     </row>
-    <row r="357" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
@@ -7510,7 +7527,7 @@
       <c r="N357" s="4"/>
       <c r="O357" s="4"/>
     </row>
-    <row r="358" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
@@ -7523,7 +7540,7 @@
       <c r="N358" s="4"/>
       <c r="O358" s="4"/>
     </row>
-    <row r="359" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
@@ -7536,7 +7553,7 @@
       <c r="N359" s="4"/>
       <c r="O359" s="4"/>
     </row>
-    <row r="360" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
@@ -7549,7 +7566,7 @@
       <c r="N360" s="4"/>
       <c r="O360" s="4"/>
     </row>
-    <row r="361" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
@@ -7562,7 +7579,7 @@
       <c r="N361" s="4"/>
       <c r="O361" s="4"/>
     </row>
-    <row r="362" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
@@ -7575,7 +7592,7 @@
       <c r="N362" s="4"/>
       <c r="O362" s="4"/>
     </row>
-    <row r="363" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
@@ -7588,7 +7605,7 @@
       <c r="N363" s="4"/>
       <c r="O363" s="4"/>
     </row>
-    <row r="364" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
@@ -7601,7 +7618,7 @@
       <c r="N364" s="4"/>
       <c r="O364" s="4"/>
     </row>
-    <row r="365" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
@@ -7614,7 +7631,7 @@
       <c r="N365" s="4"/>
       <c r="O365" s="4"/>
     </row>
-    <row r="366" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
@@ -7627,7 +7644,7 @@
       <c r="N366" s="4"/>
       <c r="O366" s="4"/>
     </row>
-    <row r="367" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
@@ -7640,7 +7657,7 @@
       <c r="N367" s="4"/>
       <c r="O367" s="4"/>
     </row>
-    <row r="368" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
@@ -7653,7 +7670,7 @@
       <c r="N368" s="4"/>
       <c r="O368" s="4"/>
     </row>
-    <row r="369" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
@@ -7666,7 +7683,7 @@
       <c r="N369" s="4"/>
       <c r="O369" s="4"/>
     </row>
-    <row r="370" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
@@ -7679,7 +7696,7 @@
       <c r="N370" s="4"/>
       <c r="O370" s="4"/>
     </row>
-    <row r="371" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
@@ -7692,7 +7709,7 @@
       <c r="N371" s="4"/>
       <c r="O371" s="4"/>
     </row>
-    <row r="372" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
@@ -7705,7 +7722,7 @@
       <c r="N372" s="4"/>
       <c r="O372" s="4"/>
     </row>
-    <row r="373" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
@@ -7718,7 +7735,7 @@
       <c r="N373" s="4"/>
       <c r="O373" s="4"/>
     </row>
-    <row r="374" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
@@ -7731,7 +7748,7 @@
       <c r="N374" s="4"/>
       <c r="O374" s="4"/>
     </row>
-    <row r="375" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
@@ -7744,7 +7761,7 @@
       <c r="N375" s="4"/>
       <c r="O375" s="4"/>
     </row>
-    <row r="376" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
@@ -7757,7 +7774,7 @@
       <c r="N376" s="4"/>
       <c r="O376" s="4"/>
     </row>
-    <row r="377" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
@@ -7770,7 +7787,7 @@
       <c r="N377" s="4"/>
       <c r="O377" s="4"/>
     </row>
-    <row r="378" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
@@ -7783,7 +7800,7 @@
       <c r="N378" s="4"/>
       <c r="O378" s="4"/>
     </row>
-    <row r="379" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
@@ -7796,7 +7813,7 @@
       <c r="N379" s="4"/>
       <c r="O379" s="4"/>
     </row>
-    <row r="380" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
@@ -7809,7 +7826,7 @@
       <c r="N380" s="4"/>
       <c r="O380" s="4"/>
     </row>
-    <row r="381" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
@@ -7822,7 +7839,7 @@
       <c r="N381" s="4"/>
       <c r="O381" s="4"/>
     </row>
-    <row r="382" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
@@ -7835,7 +7852,7 @@
       <c r="N382" s="4"/>
       <c r="O382" s="4"/>
     </row>
-    <row r="383" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
@@ -7848,7 +7865,7 @@
       <c r="N383" s="4"/>
       <c r="O383" s="4"/>
     </row>
-    <row r="384" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
@@ -7861,7 +7878,7 @@
       <c r="N384" s="4"/>
       <c r="O384" s="4"/>
     </row>
-    <row r="385" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
@@ -7874,7 +7891,7 @@
       <c r="N385" s="4"/>
       <c r="O385" s="4"/>
     </row>
-    <row r="386" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
@@ -7887,7 +7904,7 @@
       <c r="N386" s="4"/>
       <c r="O386" s="4"/>
     </row>
-    <row r="387" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
@@ -7900,7 +7917,7 @@
       <c r="N387" s="4"/>
       <c r="O387" s="4"/>
     </row>
-    <row r="388" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
@@ -7913,7 +7930,7 @@
       <c r="N388" s="4"/>
       <c r="O388" s="4"/>
     </row>
-    <row r="389" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
@@ -7926,7 +7943,7 @@
       <c r="N389" s="4"/>
       <c r="O389" s="4"/>
     </row>
-    <row r="390" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
@@ -7939,7 +7956,7 @@
       <c r="N390" s="4"/>
       <c r="O390" s="4"/>
     </row>
-    <row r="391" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
@@ -7952,7 +7969,7 @@
       <c r="N391" s="4"/>
       <c r="O391" s="4"/>
     </row>
-    <row r="392" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
@@ -7965,7 +7982,7 @@
       <c r="N392" s="4"/>
       <c r="O392" s="4"/>
     </row>
-    <row r="393" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
@@ -7978,7 +7995,7 @@
       <c r="N393" s="4"/>
       <c r="O393" s="4"/>
     </row>
-    <row r="394" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
@@ -7991,7 +8008,7 @@
       <c r="N394" s="4"/>
       <c r="O394" s="4"/>
     </row>
-    <row r="395" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
@@ -8004,7 +8021,7 @@
       <c r="N395" s="4"/>
       <c r="O395" s="4"/>
     </row>
-    <row r="396" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
@@ -8017,7 +8034,7 @@
       <c r="N396" s="4"/>
       <c r="O396" s="4"/>
     </row>
-    <row r="397" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
@@ -8030,7 +8047,7 @@
       <c r="N397" s="4"/>
       <c r="O397" s="4"/>
     </row>
-    <row r="398" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
@@ -8043,7 +8060,7 @@
       <c r="N398" s="4"/>
       <c r="O398" s="4"/>
     </row>
-    <row r="399" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
@@ -8056,7 +8073,7 @@
       <c r="N399" s="4"/>
       <c r="O399" s="4"/>
     </row>
-    <row r="400" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
@@ -8069,7 +8086,7 @@
       <c r="N400" s="4"/>
       <c r="O400" s="4"/>
     </row>
-    <row r="401" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
@@ -8082,7 +8099,7 @@
       <c r="N401" s="4"/>
       <c r="O401" s="4"/>
     </row>
-    <row r="402" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
@@ -8095,7 +8112,7 @@
       <c r="N402" s="4"/>
       <c r="O402" s="4"/>
     </row>
-    <row r="403" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
@@ -8108,7 +8125,7 @@
       <c r="N403" s="4"/>
       <c r="O403" s="4"/>
     </row>
-    <row r="404" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
@@ -8121,7 +8138,7 @@
       <c r="N404" s="4"/>
       <c r="O404" s="4"/>
     </row>
-    <row r="405" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
@@ -8134,7 +8151,7 @@
       <c r="N405" s="4"/>
       <c r="O405" s="4"/>
     </row>
-    <row r="406" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
@@ -8147,7 +8164,7 @@
       <c r="N406" s="4"/>
       <c r="O406" s="4"/>
     </row>
-    <row r="407" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
@@ -8160,7 +8177,7 @@
       <c r="N407" s="4"/>
       <c r="O407" s="4"/>
     </row>
-    <row r="408" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
@@ -8173,7 +8190,7 @@
       <c r="N408" s="4"/>
       <c r="O408" s="4"/>
     </row>
-    <row r="409" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
@@ -8186,7 +8203,7 @@
       <c r="N409" s="4"/>
       <c r="O409" s="4"/>
     </row>
-    <row r="410" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
@@ -8199,7 +8216,7 @@
       <c r="N410" s="4"/>
       <c r="O410" s="4"/>
     </row>
-    <row r="411" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
@@ -8212,7 +8229,7 @@
       <c r="N411" s="4"/>
       <c r="O411" s="4"/>
     </row>
-    <row r="412" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
@@ -8225,7 +8242,7 @@
       <c r="N412" s="4"/>
       <c r="O412" s="4"/>
     </row>
-    <row r="413" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
@@ -8238,7 +8255,7 @@
       <c r="N413" s="4"/>
       <c r="O413" s="4"/>
     </row>
-    <row r="414" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
@@ -8251,7 +8268,7 @@
       <c r="N414" s="4"/>
       <c r="O414" s="4"/>
     </row>
-    <row r="415" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
@@ -8264,7 +8281,7 @@
       <c r="N415" s="4"/>
       <c r="O415" s="4"/>
     </row>
-    <row r="416" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
@@ -8277,7 +8294,7 @@
       <c r="N416" s="4"/>
       <c r="O416" s="4"/>
     </row>
-    <row r="417" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
@@ -8290,7 +8307,7 @@
       <c r="N417" s="4"/>
       <c r="O417" s="4"/>
     </row>
-    <row r="418" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
@@ -8303,7 +8320,7 @@
       <c r="N418" s="4"/>
       <c r="O418" s="4"/>
     </row>
-    <row r="419" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
@@ -8316,7 +8333,7 @@
       <c r="N419" s="4"/>
       <c r="O419" s="4"/>
     </row>
-    <row r="420" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
@@ -8329,7 +8346,7 @@
       <c r="N420" s="4"/>
       <c r="O420" s="4"/>
     </row>
-    <row r="421" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
@@ -8342,7 +8359,7 @@
       <c r="N421" s="4"/>
       <c r="O421" s="4"/>
     </row>
-    <row r="422" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
@@ -8355,7 +8372,7 @@
       <c r="N422" s="4"/>
       <c r="O422" s="4"/>
     </row>
-    <row r="423" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
@@ -8368,7 +8385,7 @@
       <c r="N423" s="4"/>
       <c r="O423" s="4"/>
     </row>
-    <row r="424" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
@@ -8381,7 +8398,7 @@
       <c r="N424" s="4"/>
       <c r="O424" s="4"/>
     </row>
-    <row r="425" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
@@ -8394,7 +8411,7 @@
       <c r="N425" s="4"/>
       <c r="O425" s="4"/>
     </row>
-    <row r="426" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
@@ -8407,7 +8424,7 @@
       <c r="N426" s="4"/>
       <c r="O426" s="4"/>
     </row>
-    <row r="427" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
@@ -8420,7 +8437,7 @@
       <c r="N427" s="4"/>
       <c r="O427" s="4"/>
     </row>
-    <row r="428" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
@@ -8433,7 +8450,7 @@
       <c r="N428" s="4"/>
       <c r="O428" s="4"/>
     </row>
-    <row r="429" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
@@ -8446,7 +8463,7 @@
       <c r="N429" s="4"/>
       <c r="O429" s="4"/>
     </row>
-    <row r="430" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
@@ -8459,7 +8476,7 @@
       <c r="N430" s="4"/>
       <c r="O430" s="4"/>
     </row>
-    <row r="431" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
@@ -8472,7 +8489,7 @@
       <c r="N431" s="4"/>
       <c r="O431" s="4"/>
     </row>
-    <row r="432" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
@@ -8485,7 +8502,7 @@
       <c r="N432" s="4"/>
       <c r="O432" s="4"/>
     </row>
-    <row r="433" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
@@ -8498,7 +8515,7 @@
       <c r="N433" s="4"/>
       <c r="O433" s="4"/>
     </row>
-    <row r="434" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
@@ -8511,7 +8528,7 @@
       <c r="N434" s="4"/>
       <c r="O434" s="4"/>
     </row>
-    <row r="435" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
@@ -8524,7 +8541,7 @@
       <c r="N435" s="4"/>
       <c r="O435" s="4"/>
     </row>
-    <row r="436" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
@@ -8537,7 +8554,7 @@
       <c r="N436" s="4"/>
       <c r="O436" s="4"/>
     </row>
-    <row r="437" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
@@ -8550,7 +8567,7 @@
       <c r="N437" s="4"/>
       <c r="O437" s="4"/>
     </row>
-    <row r="438" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
@@ -8563,7 +8580,7 @@
       <c r="N438" s="4"/>
       <c r="O438" s="4"/>
     </row>
-    <row r="439" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
@@ -8576,7 +8593,7 @@
       <c r="N439" s="4"/>
       <c r="O439" s="4"/>
     </row>
-    <row r="440" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
@@ -8589,7 +8606,7 @@
       <c r="N440" s="4"/>
       <c r="O440" s="4"/>
     </row>
-    <row r="441" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
@@ -8602,7 +8619,7 @@
       <c r="N441" s="4"/>
       <c r="O441" s="4"/>
     </row>
-    <row r="442" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
@@ -8615,7 +8632,7 @@
       <c r="N442" s="4"/>
       <c r="O442" s="4"/>
     </row>
-    <row r="443" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
@@ -8628,7 +8645,7 @@
       <c r="N443" s="4"/>
       <c r="O443" s="4"/>
     </row>
-    <row r="444" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
@@ -8641,7 +8658,7 @@
       <c r="N444" s="4"/>
       <c r="O444" s="4"/>
     </row>
-    <row r="445" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
@@ -8654,7 +8671,7 @@
       <c r="N445" s="4"/>
       <c r="O445" s="4"/>
     </row>
-    <row r="446" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
@@ -8667,7 +8684,7 @@
       <c r="N446" s="4"/>
       <c r="O446" s="4"/>
     </row>
-    <row r="447" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
@@ -8680,7 +8697,7 @@
       <c r="N447" s="4"/>
       <c r="O447" s="4"/>
     </row>
-    <row r="448" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
@@ -8693,7 +8710,7 @@
       <c r="N448" s="4"/>
       <c r="O448" s="4"/>
     </row>
-    <row r="449" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
@@ -8706,7 +8723,7 @@
       <c r="N449" s="4"/>
       <c r="O449" s="4"/>
     </row>
-    <row r="450" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
@@ -8719,7 +8736,7 @@
       <c r="N450" s="4"/>
       <c r="O450" s="4"/>
     </row>
-    <row r="451" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
@@ -8732,7 +8749,7 @@
       <c r="N451" s="4"/>
       <c r="O451" s="4"/>
     </row>
-    <row r="452" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
@@ -8745,7 +8762,7 @@
       <c r="N452" s="4"/>
       <c r="O452" s="4"/>
     </row>
-    <row r="453" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
@@ -8758,7 +8775,7 @@
       <c r="N453" s="4"/>
       <c r="O453" s="4"/>
     </row>
-    <row r="454" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
@@ -8771,7 +8788,7 @@
       <c r="N454" s="4"/>
       <c r="O454" s="4"/>
     </row>
-    <row r="455" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
@@ -8784,7 +8801,7 @@
       <c r="N455" s="4"/>
       <c r="O455" s="4"/>
     </row>
-    <row r="456" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
@@ -8797,7 +8814,7 @@
       <c r="N456" s="4"/>
       <c r="O456" s="4"/>
     </row>
-    <row r="457" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
@@ -8810,7 +8827,7 @@
       <c r="N457" s="4"/>
       <c r="O457" s="4"/>
     </row>
-    <row r="458" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
@@ -8823,7 +8840,7 @@
       <c r="N458" s="4"/>
       <c r="O458" s="4"/>
     </row>
-    <row r="459" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
@@ -8836,7 +8853,7 @@
       <c r="N459" s="4"/>
       <c r="O459" s="4"/>
     </row>
-    <row r="460" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
@@ -8849,7 +8866,7 @@
       <c r="N460" s="4"/>
       <c r="O460" s="4"/>
     </row>
-    <row r="461" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
@@ -8862,7 +8879,7 @@
       <c r="N461" s="4"/>
       <c r="O461" s="4"/>
     </row>
-    <row r="462" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
@@ -8875,7 +8892,7 @@
       <c r="N462" s="4"/>
       <c r="O462" s="4"/>
     </row>
-    <row r="463" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
@@ -8888,7 +8905,7 @@
       <c r="N463" s="4"/>
       <c r="O463" s="4"/>
     </row>
-    <row r="464" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
@@ -8901,7 +8918,7 @@
       <c r="N464" s="4"/>
       <c r="O464" s="4"/>
     </row>
-    <row r="465" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
@@ -8914,7 +8931,7 @@
       <c r="N465" s="4"/>
       <c r="O465" s="4"/>
     </row>
-    <row r="466" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
@@ -8927,7 +8944,7 @@
       <c r="N466" s="4"/>
       <c r="O466" s="4"/>
     </row>
-    <row r="467" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
@@ -8940,7 +8957,7 @@
       <c r="N467" s="4"/>
       <c r="O467" s="4"/>
     </row>
-    <row r="468" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
@@ -8953,7 +8970,7 @@
       <c r="N468" s="4"/>
       <c r="O468" s="4"/>
     </row>
-    <row r="469" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
@@ -8966,7 +8983,7 @@
       <c r="N469" s="4"/>
       <c r="O469" s="4"/>
     </row>
-    <row r="470" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
@@ -8979,7 +8996,7 @@
       <c r="N470" s="4"/>
       <c r="O470" s="4"/>
     </row>
-    <row r="471" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
@@ -8992,7 +9009,7 @@
       <c r="N471" s="4"/>
       <c r="O471" s="4"/>
     </row>
-    <row r="472" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
@@ -9005,7 +9022,7 @@
       <c r="N472" s="4"/>
       <c r="O472" s="4"/>
     </row>
-    <row r="473" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
@@ -9018,7 +9035,7 @@
       <c r="N473" s="4"/>
       <c r="O473" s="4"/>
     </row>
-    <row r="474" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
@@ -9031,7 +9048,7 @@
       <c r="N474" s="4"/>
       <c r="O474" s="4"/>
     </row>
-    <row r="475" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
@@ -9044,7 +9061,7 @@
       <c r="N475" s="4"/>
       <c r="O475" s="4"/>
     </row>
-    <row r="476" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
@@ -9057,7 +9074,7 @@
       <c r="N476" s="4"/>
       <c r="O476" s="4"/>
     </row>
-    <row r="477" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
@@ -9070,7 +9087,7 @@
       <c r="N477" s="4"/>
       <c r="O477" s="4"/>
     </row>
-    <row r="478" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
@@ -9083,7 +9100,7 @@
       <c r="N478" s="4"/>
       <c r="O478" s="4"/>
     </row>
-    <row r="479" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
@@ -9096,7 +9113,7 @@
       <c r="N479" s="4"/>
       <c r="O479" s="4"/>
     </row>
-    <row r="480" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
@@ -9109,7 +9126,7 @@
       <c r="N480" s="4"/>
       <c r="O480" s="4"/>
     </row>
-    <row r="481" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
@@ -9122,7 +9139,7 @@
       <c r="N481" s="4"/>
       <c r="O481" s="4"/>
     </row>
-    <row r="482" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
@@ -9135,7 +9152,7 @@
       <c r="N482" s="4"/>
       <c r="O482" s="4"/>
     </row>
-    <row r="483" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
@@ -9148,7 +9165,7 @@
       <c r="N483" s="4"/>
       <c r="O483" s="4"/>
     </row>
-    <row r="484" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
@@ -9161,7 +9178,7 @@
       <c r="N484" s="4"/>
       <c r="O484" s="4"/>
     </row>
-    <row r="485" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
@@ -9174,7 +9191,7 @@
       <c r="N485" s="4"/>
       <c r="O485" s="4"/>
     </row>
-    <row r="486" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
@@ -9187,7 +9204,7 @@
       <c r="N486" s="4"/>
       <c r="O486" s="4"/>
     </row>
-    <row r="487" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
@@ -9200,7 +9217,7 @@
       <c r="N487" s="4"/>
       <c r="O487" s="4"/>
     </row>
-    <row r="488" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
@@ -9213,7 +9230,7 @@
       <c r="N488" s="4"/>
       <c r="O488" s="4"/>
     </row>
-    <row r="489" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
@@ -9226,7 +9243,7 @@
       <c r="N489" s="4"/>
       <c r="O489" s="4"/>
     </row>
-    <row r="490" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
@@ -9239,7 +9256,7 @@
       <c r="N490" s="4"/>
       <c r="O490" s="4"/>
     </row>
-    <row r="491" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
@@ -9252,7 +9269,7 @@
       <c r="N491" s="4"/>
       <c r="O491" s="4"/>
     </row>
-    <row r="492" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
@@ -9265,7 +9282,7 @@
       <c r="N492" s="4"/>
       <c r="O492" s="4"/>
     </row>
-    <row r="493" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
@@ -9278,7 +9295,7 @@
       <c r="N493" s="4"/>
       <c r="O493" s="4"/>
     </row>
-    <row r="494" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
@@ -9291,7 +9308,7 @@
       <c r="N494" s="4"/>
       <c r="O494" s="4"/>
     </row>
-    <row r="495" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
@@ -9304,7 +9321,7 @@
       <c r="N495" s="4"/>
       <c r="O495" s="4"/>
     </row>
-    <row r="496" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
@@ -9317,7 +9334,7 @@
       <c r="N496" s="4"/>
       <c r="O496" s="4"/>
     </row>
-    <row r="497" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
@@ -9330,7 +9347,7 @@
       <c r="N497" s="4"/>
       <c r="O497" s="4"/>
     </row>
-    <row r="498" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
@@ -9343,7 +9360,7 @@
       <c r="N498" s="4"/>
       <c r="O498" s="4"/>
     </row>
-    <row r="499" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
@@ -9356,7 +9373,7 @@
       <c r="N499" s="4"/>
       <c r="O499" s="4"/>
     </row>
-    <row r="500" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
@@ -9369,7 +9386,7 @@
       <c r="N500" s="4"/>
       <c r="O500" s="4"/>
     </row>
-    <row r="501" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
@@ -9382,7 +9399,7 @@
       <c r="N501" s="4"/>
       <c r="O501" s="4"/>
     </row>
-    <row r="502" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
@@ -9395,7 +9412,7 @@
       <c r="N502" s="4"/>
       <c r="O502" s="4"/>
     </row>
-    <row r="503" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
@@ -9408,7 +9425,7 @@
       <c r="N503" s="4"/>
       <c r="O503" s="4"/>
     </row>
-    <row r="504" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
@@ -9421,7 +9438,7 @@
       <c r="N504" s="4"/>
       <c r="O504" s="4"/>
     </row>
-    <row r="505" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
@@ -9434,7 +9451,7 @@
       <c r="N505" s="4"/>
       <c r="O505" s="4"/>
     </row>
-    <row r="506" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
@@ -9447,7 +9464,7 @@
       <c r="N506" s="4"/>
       <c r="O506" s="4"/>
     </row>
-    <row r="507" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
@@ -9460,7 +9477,7 @@
       <c r="N507" s="4"/>
       <c r="O507" s="4"/>
     </row>
-    <row r="508" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
@@ -9473,7 +9490,7 @@
       <c r="N508" s="4"/>
       <c r="O508" s="4"/>
     </row>
-    <row r="509" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
@@ -9486,7 +9503,7 @@
       <c r="N509" s="4"/>
       <c r="O509" s="4"/>
     </row>
-    <row r="510" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
@@ -9499,7 +9516,7 @@
       <c r="N510" s="4"/>
       <c r="O510" s="4"/>
     </row>
-    <row r="511" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
@@ -9512,7 +9529,7 @@
       <c r="N511" s="4"/>
       <c r="O511" s="4"/>
     </row>
-    <row r="512" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
@@ -9525,7 +9542,7 @@
       <c r="N512" s="4"/>
       <c r="O512" s="4"/>
     </row>
-    <row r="513" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
@@ -9538,7 +9555,7 @@
       <c r="N513" s="4"/>
       <c r="O513" s="4"/>
     </row>
-    <row r="514" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
@@ -9551,7 +9568,7 @@
       <c r="N514" s="4"/>
       <c r="O514" s="4"/>
     </row>
-    <row r="515" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
@@ -9564,7 +9581,7 @@
       <c r="N515" s="4"/>
       <c r="O515" s="4"/>
     </row>
-    <row r="516" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
@@ -9577,7 +9594,7 @@
       <c r="N516" s="4"/>
       <c r="O516" s="4"/>
     </row>
-    <row r="517" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
@@ -9590,7 +9607,7 @@
       <c r="N517" s="4"/>
       <c r="O517" s="4"/>
     </row>
-    <row r="518" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
@@ -9603,7 +9620,7 @@
       <c r="N518" s="4"/>
       <c r="O518" s="4"/>
     </row>
-    <row r="519" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
@@ -9616,7 +9633,7 @@
       <c r="N519" s="4"/>
       <c r="O519" s="4"/>
     </row>
-    <row r="520" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
@@ -9629,7 +9646,7 @@
       <c r="N520" s="4"/>
       <c r="O520" s="4"/>
     </row>
-    <row r="521" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
@@ -9642,7 +9659,7 @@
       <c r="N521" s="4"/>
       <c r="O521" s="4"/>
     </row>
-    <row r="522" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
@@ -9655,7 +9672,7 @@
       <c r="N522" s="4"/>
       <c r="O522" s="4"/>
     </row>
-    <row r="523" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
@@ -9668,7 +9685,7 @@
       <c r="N523" s="4"/>
       <c r="O523" s="4"/>
     </row>
-    <row r="524" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
@@ -9681,7 +9698,7 @@
       <c r="N524" s="4"/>
       <c r="O524" s="4"/>
     </row>
-    <row r="525" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
@@ -9694,7 +9711,7 @@
       <c r="N525" s="4"/>
       <c r="O525" s="4"/>
     </row>
-    <row r="526" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
@@ -9707,7 +9724,7 @@
       <c r="N526" s="4"/>
       <c r="O526" s="4"/>
     </row>
-    <row r="527" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
@@ -9720,7 +9737,7 @@
       <c r="N527" s="4"/>
       <c r="O527" s="4"/>
     </row>
-    <row r="528" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
@@ -9733,7 +9750,7 @@
       <c r="N528" s="4"/>
       <c r="O528" s="4"/>
     </row>
-    <row r="529" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
@@ -9746,7 +9763,7 @@
       <c r="N529" s="4"/>
       <c r="O529" s="4"/>
     </row>
-    <row r="530" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
@@ -9759,7 +9776,7 @@
       <c r="N530" s="4"/>
       <c r="O530" s="4"/>
     </row>
-    <row r="531" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
@@ -9772,7 +9789,7 @@
       <c r="N531" s="4"/>
       <c r="O531" s="4"/>
     </row>
-    <row r="532" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
@@ -9785,7 +9802,7 @@
       <c r="N532" s="4"/>
       <c r="O532" s="4"/>
     </row>
-    <row r="533" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
@@ -9798,7 +9815,7 @@
       <c r="N533" s="4"/>
       <c r="O533" s="4"/>
     </row>
-    <row r="534" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
@@ -9811,7 +9828,7 @@
       <c r="N534" s="4"/>
       <c r="O534" s="4"/>
     </row>
-    <row r="535" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
@@ -9824,7 +9841,7 @@
       <c r="N535" s="4"/>
       <c r="O535" s="4"/>
     </row>
-    <row r="536" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
@@ -9837,7 +9854,7 @@
       <c r="N536" s="4"/>
       <c r="O536" s="4"/>
     </row>
-    <row r="537" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
@@ -9850,7 +9867,7 @@
       <c r="N537" s="4"/>
       <c r="O537" s="4"/>
     </row>
-    <row r="538" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
@@ -9863,7 +9880,7 @@
       <c r="N538" s="4"/>
       <c r="O538" s="4"/>
     </row>
-    <row r="539" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
@@ -9876,7 +9893,7 @@
       <c r="N539" s="4"/>
       <c r="O539" s="4"/>
     </row>
-    <row r="540" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
@@ -9889,7 +9906,7 @@
       <c r="N540" s="4"/>
       <c r="O540" s="4"/>
     </row>
-    <row r="541" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
@@ -9902,7 +9919,7 @@
       <c r="N541" s="4"/>
       <c r="O541" s="4"/>
     </row>
-    <row r="542" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
@@ -9915,7 +9932,7 @@
       <c r="N542" s="4"/>
       <c r="O542" s="4"/>
     </row>
-    <row r="543" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
@@ -9928,7 +9945,7 @@
       <c r="N543" s="4"/>
       <c r="O543" s="4"/>
     </row>
-    <row r="544" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
@@ -9941,7 +9958,7 @@
       <c r="N544" s="4"/>
       <c r="O544" s="4"/>
     </row>
-    <row r="545" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
@@ -9954,7 +9971,7 @@
       <c r="N545" s="4"/>
       <c r="O545" s="4"/>
     </row>
-    <row r="546" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
@@ -9967,7 +9984,7 @@
       <c r="N546" s="4"/>
       <c r="O546" s="4"/>
     </row>
-    <row r="547" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
@@ -9980,7 +9997,7 @@
       <c r="N547" s="4"/>
       <c r="O547" s="4"/>
     </row>
-    <row r="548" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
@@ -9993,7 +10010,7 @@
       <c r="N548" s="4"/>
       <c r="O548" s="4"/>
     </row>
-    <row r="549" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
@@ -10006,7 +10023,7 @@
       <c r="N549" s="4"/>
       <c r="O549" s="4"/>
     </row>
-    <row r="550" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
@@ -10019,7 +10036,7 @@
       <c r="N550" s="4"/>
       <c r="O550" s="4"/>
     </row>
-    <row r="551" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
@@ -10032,7 +10049,7 @@
       <c r="N551" s="4"/>
       <c r="O551" s="4"/>
     </row>
-    <row r="552" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
@@ -10045,7 +10062,7 @@
       <c r="N552" s="4"/>
       <c r="O552" s="4"/>
     </row>
-    <row r="553" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
@@ -10058,7 +10075,7 @@
       <c r="N553" s="4"/>
       <c r="O553" s="4"/>
     </row>
-    <row r="554" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
@@ -10071,7 +10088,7 @@
       <c r="N554" s="4"/>
       <c r="O554" s="4"/>
     </row>
-    <row r="555" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
@@ -10084,7 +10101,7 @@
       <c r="N555" s="4"/>
       <c r="O555" s="4"/>
     </row>
-    <row r="556" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
@@ -10097,7 +10114,7 @@
       <c r="N556" s="4"/>
       <c r="O556" s="4"/>
     </row>
-    <row r="557" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
@@ -10110,7 +10127,7 @@
       <c r="N557" s="4"/>
       <c r="O557" s="4"/>
     </row>
-    <row r="558" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
@@ -10123,7 +10140,7 @@
       <c r="N558" s="4"/>
       <c r="O558" s="4"/>
     </row>
-    <row r="559" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
@@ -10136,7 +10153,7 @@
       <c r="N559" s="4"/>
       <c r="O559" s="4"/>
     </row>
-    <row r="560" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
@@ -10149,7 +10166,7 @@
       <c r="N560" s="4"/>
       <c r="O560" s="4"/>
     </row>
-    <row r="561" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
@@ -10162,7 +10179,7 @@
       <c r="N561" s="4"/>
       <c r="O561" s="4"/>
     </row>
-    <row r="562" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
@@ -10175,7 +10192,7 @@
       <c r="N562" s="4"/>
       <c r="O562" s="4"/>
     </row>
-    <row r="563" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
@@ -10188,7 +10205,7 @@
       <c r="N563" s="4"/>
       <c r="O563" s="4"/>
     </row>
-    <row r="564" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
@@ -10201,7 +10218,7 @@
       <c r="N564" s="4"/>
       <c r="O564" s="4"/>
     </row>
-    <row r="565" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
@@ -10214,7 +10231,7 @@
       <c r="N565" s="4"/>
       <c r="O565" s="4"/>
     </row>
-    <row r="566" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
@@ -10227,7 +10244,7 @@
       <c r="N566" s="4"/>
       <c r="O566" s="4"/>
     </row>
-    <row r="567" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
@@ -10240,7 +10257,7 @@
       <c r="N567" s="4"/>
       <c r="O567" s="4"/>
     </row>
-    <row r="568" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
@@ -10253,7 +10270,7 @@
       <c r="N568" s="4"/>
       <c r="O568" s="4"/>
     </row>
-    <row r="569" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
@@ -10266,7 +10283,7 @@
       <c r="N569" s="4"/>
       <c r="O569" s="4"/>
     </row>
-    <row r="570" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
@@ -10279,7 +10296,7 @@
       <c r="N570" s="4"/>
       <c r="O570" s="4"/>
     </row>
-    <row r="571" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
@@ -10292,7 +10309,7 @@
       <c r="N571" s="4"/>
       <c r="O571" s="4"/>
     </row>
-    <row r="572" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
@@ -10305,7 +10322,7 @@
       <c r="N572" s="4"/>
       <c r="O572" s="4"/>
     </row>
-    <row r="573" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
@@ -10318,7 +10335,7 @@
       <c r="N573" s="4"/>
       <c r="O573" s="4"/>
     </row>
-    <row r="574" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
@@ -10331,7 +10348,7 @@
       <c r="N574" s="4"/>
       <c r="O574" s="4"/>
     </row>
-    <row r="575" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
@@ -10344,7 +10361,7 @@
       <c r="N575" s="4"/>
       <c r="O575" s="4"/>
     </row>
-    <row r="576" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
@@ -10357,7 +10374,7 @@
       <c r="N576" s="4"/>
       <c r="O576" s="4"/>
     </row>
-    <row r="577" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
@@ -10370,7 +10387,7 @@
       <c r="N577" s="4"/>
       <c r="O577" s="4"/>
     </row>
-    <row r="578" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
@@ -10383,7 +10400,7 @@
       <c r="N578" s="4"/>
       <c r="O578" s="4"/>
     </row>
-    <row r="579" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
@@ -10396,7 +10413,7 @@
       <c r="N579" s="4"/>
       <c r="O579" s="4"/>
     </row>
-    <row r="580" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
@@ -10409,7 +10426,7 @@
       <c r="N580" s="4"/>
       <c r="O580" s="4"/>
     </row>
-    <row r="581" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
@@ -10422,7 +10439,7 @@
       <c r="N581" s="4"/>
       <c r="O581" s="4"/>
     </row>
-    <row r="582" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
@@ -10435,7 +10452,7 @@
       <c r="N582" s="4"/>
       <c r="O582" s="4"/>
     </row>
-    <row r="583" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
@@ -10448,7 +10465,7 @@
       <c r="N583" s="4"/>
       <c r="O583" s="4"/>
     </row>
-    <row r="584" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
@@ -10461,7 +10478,7 @@
       <c r="N584" s="4"/>
       <c r="O584" s="4"/>
     </row>
-    <row r="585" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
@@ -10474,7 +10491,7 @@
       <c r="N585" s="4"/>
       <c r="O585" s="4"/>
     </row>
-    <row r="586" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
@@ -10487,7 +10504,7 @@
       <c r="N586" s="4"/>
       <c r="O586" s="4"/>
     </row>
-    <row r="587" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
@@ -10500,7 +10517,7 @@
       <c r="N587" s="4"/>
       <c r="O587" s="4"/>
     </row>
-    <row r="588" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
@@ -10513,7 +10530,7 @@
       <c r="N588" s="4"/>
       <c r="O588" s="4"/>
     </row>
-    <row r="589" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
@@ -10526,7 +10543,7 @@
       <c r="N589" s="4"/>
       <c r="O589" s="4"/>
     </row>
-    <row r="590" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
@@ -10539,7 +10556,7 @@
       <c r="N590" s="4"/>
       <c r="O590" s="4"/>
     </row>
-    <row r="591" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
@@ -10552,7 +10569,7 @@
       <c r="N591" s="4"/>
       <c r="O591" s="4"/>
     </row>
-    <row r="592" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
@@ -10565,7 +10582,7 @@
       <c r="N592" s="4"/>
       <c r="O592" s="4"/>
     </row>
-    <row r="593" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
@@ -10578,7 +10595,7 @@
       <c r="N593" s="4"/>
       <c r="O593" s="4"/>
     </row>
-    <row r="594" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
@@ -10591,7 +10608,7 @@
       <c r="N594" s="4"/>
       <c r="O594" s="4"/>
     </row>
-    <row r="595" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
@@ -10604,7 +10621,7 @@
       <c r="N595" s="4"/>
       <c r="O595" s="4"/>
     </row>
-    <row r="596" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
@@ -10617,7 +10634,7 @@
       <c r="N596" s="4"/>
       <c r="O596" s="4"/>
     </row>
-    <row r="597" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
@@ -10630,7 +10647,7 @@
       <c r="N597" s="4"/>
       <c r="O597" s="4"/>
     </row>
-    <row r="598" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
@@ -10643,7 +10660,7 @@
       <c r="N598" s="4"/>
       <c r="O598" s="4"/>
     </row>
-    <row r="599" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
@@ -10656,7 +10673,7 @@
       <c r="N599" s="4"/>
       <c r="O599" s="4"/>
     </row>
-    <row r="600" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
@@ -10669,7 +10686,7 @@
       <c r="N600" s="4"/>
       <c r="O600" s="4"/>
     </row>
-    <row r="601" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
@@ -10682,7 +10699,7 @@
       <c r="N601" s="4"/>
       <c r="O601" s="4"/>
     </row>
-    <row r="602" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
@@ -10695,7 +10712,7 @@
       <c r="N602" s="4"/>
       <c r="O602" s="4"/>
     </row>
-    <row r="603" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
@@ -10708,7 +10725,7 @@
       <c r="N603" s="4"/>
       <c r="O603" s="4"/>
     </row>
-    <row r="604" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
@@ -10721,7 +10738,7 @@
       <c r="N604" s="4"/>
       <c r="O604" s="4"/>
     </row>
-    <row r="605" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
@@ -10734,7 +10751,7 @@
       <c r="N605" s="4"/>
       <c r="O605" s="4"/>
     </row>
-    <row r="606" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
@@ -10747,7 +10764,7 @@
       <c r="N606" s="4"/>
       <c r="O606" s="4"/>
     </row>
-    <row r="607" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
@@ -10760,7 +10777,7 @@
       <c r="N607" s="4"/>
       <c r="O607" s="4"/>
     </row>
-    <row r="608" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
@@ -10773,7 +10790,7 @@
       <c r="N608" s="4"/>
       <c r="O608" s="4"/>
     </row>
-    <row r="609" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
@@ -10786,7 +10803,7 @@
       <c r="N609" s="4"/>
       <c r="O609" s="4"/>
     </row>
-    <row r="610" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
@@ -10799,7 +10816,7 @@
       <c r="N610" s="4"/>
       <c r="O610" s="4"/>
     </row>
-    <row r="611" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
@@ -10812,7 +10829,7 @@
       <c r="N611" s="4"/>
       <c r="O611" s="4"/>
     </row>
-    <row r="612" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
@@ -10825,7 +10842,7 @@
       <c r="N612" s="4"/>
       <c r="O612" s="4"/>
     </row>
-    <row r="613" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
@@ -10838,7 +10855,7 @@
       <c r="N613" s="4"/>
       <c r="O613" s="4"/>
     </row>
-    <row r="614" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
@@ -10851,7 +10868,7 @@
       <c r="N614" s="4"/>
       <c r="O614" s="4"/>
     </row>
-    <row r="615" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
@@ -10864,7 +10881,7 @@
       <c r="N615" s="4"/>
       <c r="O615" s="4"/>
     </row>
-    <row r="616" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
@@ -10877,7 +10894,7 @@
       <c r="N616" s="4"/>
       <c r="O616" s="4"/>
     </row>
-    <row r="617" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
@@ -10890,7 +10907,7 @@
       <c r="N617" s="4"/>
       <c r="O617" s="4"/>
     </row>
-    <row r="618" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
@@ -10903,7 +10920,7 @@
       <c r="N618" s="4"/>
       <c r="O618" s="4"/>
     </row>
-    <row r="619" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
@@ -10916,7 +10933,7 @@
       <c r="N619" s="4"/>
       <c r="O619" s="4"/>
     </row>
-    <row r="620" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
@@ -10929,7 +10946,7 @@
       <c r="N620" s="4"/>
       <c r="O620" s="4"/>
     </row>
-    <row r="621" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
@@ -10942,7 +10959,7 @@
       <c r="N621" s="4"/>
       <c r="O621" s="4"/>
     </row>
-    <row r="622" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
@@ -10955,7 +10972,7 @@
       <c r="N622" s="4"/>
       <c r="O622" s="4"/>
     </row>
-    <row r="623" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
@@ -10968,7 +10985,7 @@
       <c r="N623" s="4"/>
       <c r="O623" s="4"/>
     </row>
-    <row r="624" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
@@ -10981,7 +10998,7 @@
       <c r="N624" s="4"/>
       <c r="O624" s="4"/>
     </row>
-    <row r="625" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
@@ -10994,7 +11011,7 @@
       <c r="N625" s="4"/>
       <c r="O625" s="4"/>
     </row>
-    <row r="626" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
@@ -11007,7 +11024,7 @@
       <c r="N626" s="4"/>
       <c r="O626" s="4"/>
     </row>
-    <row r="627" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
@@ -11020,7 +11037,7 @@
       <c r="N627" s="4"/>
       <c r="O627" s="4"/>
     </row>
-    <row r="628" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
@@ -11033,7 +11050,7 @@
       <c r="N628" s="4"/>
       <c r="O628" s="4"/>
     </row>
-    <row r="629" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
@@ -11046,7 +11063,7 @@
       <c r="N629" s="4"/>
       <c r="O629" s="4"/>
     </row>
-    <row r="630" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
@@ -11059,7 +11076,7 @@
       <c r="N630" s="4"/>
       <c r="O630" s="4"/>
     </row>
-    <row r="631" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
@@ -11072,7 +11089,7 @@
       <c r="N631" s="4"/>
       <c r="O631" s="4"/>
     </row>
-    <row r="632" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
@@ -11085,7 +11102,7 @@
       <c r="N632" s="4"/>
       <c r="O632" s="4"/>
     </row>
-    <row r="633" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
@@ -11098,7 +11115,7 @@
       <c r="N633" s="4"/>
       <c r="O633" s="4"/>
     </row>
-    <row r="634" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
@@ -11111,7 +11128,7 @@
       <c r="N634" s="4"/>
       <c r="O634" s="4"/>
     </row>
-    <row r="635" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
@@ -11124,7 +11141,7 @@
       <c r="N635" s="4"/>
       <c r="O635" s="4"/>
     </row>
-    <row r="636" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
@@ -11137,7 +11154,7 @@
       <c r="N636" s="4"/>
       <c r="O636" s="4"/>
     </row>
-    <row r="637" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
@@ -11150,7 +11167,7 @@
       <c r="N637" s="4"/>
       <c r="O637" s="4"/>
     </row>
-    <row r="638" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
@@ -11163,7 +11180,7 @@
       <c r="N638" s="4"/>
       <c r="O638" s="4"/>
     </row>
-    <row r="639" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
@@ -11176,7 +11193,7 @@
       <c r="N639" s="4"/>
       <c r="O639" s="4"/>
     </row>
-    <row r="640" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
@@ -11189,7 +11206,7 @@
       <c r="N640" s="4"/>
       <c r="O640" s="4"/>
     </row>
-    <row r="641" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
@@ -11202,7 +11219,7 @@
       <c r="N641" s="4"/>
       <c r="O641" s="4"/>
     </row>
-    <row r="642" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
@@ -11215,7 +11232,7 @@
       <c r="N642" s="4"/>
       <c r="O642" s="4"/>
     </row>
-    <row r="643" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
@@ -11228,7 +11245,7 @@
       <c r="N643" s="4"/>
       <c r="O643" s="4"/>
     </row>
-    <row r="644" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
@@ -11241,7 +11258,7 @@
       <c r="N644" s="4"/>
       <c r="O644" s="4"/>
     </row>
-    <row r="645" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
@@ -11254,7 +11271,7 @@
       <c r="N645" s="4"/>
       <c r="O645" s="4"/>
     </row>
-    <row r="646" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
@@ -11267,7 +11284,7 @@
       <c r="N646" s="4"/>
       <c r="O646" s="4"/>
     </row>
-    <row r="647" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
@@ -11280,7 +11297,7 @@
       <c r="N647" s="4"/>
       <c r="O647" s="4"/>
     </row>
-    <row r="648" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
@@ -11293,7 +11310,7 @@
       <c r="N648" s="4"/>
       <c r="O648" s="4"/>
     </row>
-    <row r="649" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="649" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
@@ -11306,7 +11323,7 @@
       <c r="N649" s="4"/>
       <c r="O649" s="4"/>
     </row>
-    <row r="650" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="650" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
@@ -11319,7 +11336,7 @@
       <c r="N650" s="4"/>
       <c r="O650" s="4"/>
     </row>
-    <row r="651" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="651" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
@@ -11332,7 +11349,7 @@
       <c r="N651" s="4"/>
       <c r="O651" s="4"/>
     </row>
-    <row r="652" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="652" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
@@ -11345,7 +11362,7 @@
       <c r="N652" s="4"/>
       <c r="O652" s="4"/>
     </row>
-    <row r="653" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="653" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
@@ -11358,7 +11375,7 @@
       <c r="N653" s="4"/>
       <c r="O653" s="4"/>
     </row>
-    <row r="654" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="654" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
@@ -11371,7 +11388,7 @@
       <c r="N654" s="4"/>
       <c r="O654" s="4"/>
     </row>
-    <row r="655" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="655" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
@@ -11384,7 +11401,7 @@
       <c r="N655" s="4"/>
       <c r="O655" s="4"/>
     </row>
-    <row r="656" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="656" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
@@ -11397,7 +11414,7 @@
       <c r="N656" s="4"/>
       <c r="O656" s="4"/>
     </row>
-    <row r="657" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="657" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
@@ -11410,7 +11427,7 @@
       <c r="N657" s="4"/>
       <c r="O657" s="4"/>
     </row>
-    <row r="658" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="658" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
@@ -11423,7 +11440,7 @@
       <c r="N658" s="4"/>
       <c r="O658" s="4"/>
     </row>
-    <row r="659" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="659" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
@@ -11436,7 +11453,7 @@
       <c r="N659" s="4"/>
       <c r="O659" s="4"/>
     </row>
-    <row r="660" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="660" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
@@ -11449,7 +11466,7 @@
       <c r="N660" s="4"/>
       <c r="O660" s="4"/>
     </row>
-    <row r="661" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="661" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
@@ -11462,7 +11479,7 @@
       <c r="N661" s="4"/>
       <c r="O661" s="4"/>
     </row>
-    <row r="662" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="662" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
@@ -11475,7 +11492,7 @@
       <c r="N662" s="4"/>
       <c r="O662" s="4"/>
     </row>
-    <row r="663" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="663" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
@@ -11488,7 +11505,7 @@
       <c r="N663" s="4"/>
       <c r="O663" s="4"/>
     </row>
-    <row r="664" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="664" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
@@ -11501,7 +11518,7 @@
       <c r="N664" s="4"/>
       <c r="O664" s="4"/>
     </row>
-    <row r="665" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="665" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
@@ -11514,7 +11531,7 @@
       <c r="N665" s="4"/>
       <c r="O665" s="4"/>
     </row>
-    <row r="666" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="666" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
@@ -11527,7 +11544,7 @@
       <c r="N666" s="4"/>
       <c r="O666" s="4"/>
     </row>
-    <row r="667" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="667" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
@@ -11540,7 +11557,7 @@
       <c r="N667" s="4"/>
       <c r="O667" s="4"/>
     </row>
-    <row r="668" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="668" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
@@ -11553,7 +11570,7 @@
       <c r="N668" s="4"/>
       <c r="O668" s="4"/>
     </row>
-    <row r="669" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="669" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
@@ -11566,7 +11583,7 @@
       <c r="N669" s="4"/>
       <c r="O669" s="4"/>
     </row>
-    <row r="670" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="670" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
@@ -11579,7 +11596,7 @@
       <c r="N670" s="4"/>
       <c r="O670" s="4"/>
     </row>
-    <row r="671" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="671" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
@@ -11592,7 +11609,7 @@
       <c r="N671" s="4"/>
       <c r="O671" s="4"/>
     </row>
-    <row r="672" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="672" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
@@ -11605,7 +11622,7 @@
       <c r="N672" s="4"/>
       <c r="O672" s="4"/>
     </row>
-    <row r="673" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="673" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
@@ -11618,7 +11635,7 @@
       <c r="N673" s="4"/>
       <c r="O673" s="4"/>
     </row>
-    <row r="674" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="674" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
@@ -11631,7 +11648,7 @@
       <c r="N674" s="4"/>
       <c r="O674" s="4"/>
     </row>
-    <row r="675" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="675" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
@@ -11644,7 +11661,7 @@
       <c r="N675" s="4"/>
       <c r="O675" s="4"/>
     </row>
-    <row r="676" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="676" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
@@ -11657,7 +11674,7 @@
       <c r="N676" s="4"/>
       <c r="O676" s="4"/>
     </row>
-    <row r="677" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="677" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
@@ -11670,7 +11687,7 @@
       <c r="N677" s="4"/>
       <c r="O677" s="4"/>
     </row>
-    <row r="678" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="678" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
@@ -11683,7 +11700,7 @@
       <c r="N678" s="4"/>
       <c r="O678" s="4"/>
     </row>
-    <row r="679" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="679" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
@@ -11696,7 +11713,7 @@
       <c r="N679" s="4"/>
       <c r="O679" s="4"/>
     </row>
-    <row r="680" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="680" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
@@ -11709,7 +11726,7 @@
       <c r="N680" s="4"/>
       <c r="O680" s="4"/>
     </row>
-    <row r="681" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="681" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
@@ -11722,7 +11739,7 @@
       <c r="N681" s="4"/>
       <c r="O681" s="4"/>
     </row>
-    <row r="682" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="682" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
@@ -11735,7 +11752,7 @@
       <c r="N682" s="4"/>
       <c r="O682" s="4"/>
     </row>
-    <row r="683" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="683" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
@@ -11748,7 +11765,7 @@
       <c r="N683" s="4"/>
       <c r="O683" s="4"/>
     </row>
-    <row r="684" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="684" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
@@ -11761,7 +11778,7 @@
       <c r="N684" s="4"/>
       <c r="O684" s="4"/>
     </row>
-    <row r="685" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="685" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
@@ -11774,7 +11791,7 @@
       <c r="N685" s="4"/>
       <c r="O685" s="4"/>
     </row>
-    <row r="686" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="686" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
@@ -11787,7 +11804,7 @@
       <c r="N686" s="4"/>
       <c r="O686" s="4"/>
     </row>
-    <row r="687" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="687" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
@@ -11800,7 +11817,7 @@
       <c r="N687" s="4"/>
       <c r="O687" s="4"/>
     </row>
-    <row r="688" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="688" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
@@ -11813,7 +11830,7 @@
       <c r="N688" s="4"/>
       <c r="O688" s="4"/>
     </row>
-    <row r="689" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="689" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
@@ -11826,7 +11843,7 @@
       <c r="N689" s="4"/>
       <c r="O689" s="4"/>
     </row>
-    <row r="690" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="690" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
@@ -11839,7 +11856,7 @@
       <c r="N690" s="4"/>
       <c r="O690" s="4"/>
     </row>
-    <row r="691" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="691" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
@@ -11852,7 +11869,7 @@
       <c r="N691" s="4"/>
       <c r="O691" s="4"/>
     </row>
-    <row r="692" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="692" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
@@ -11865,7 +11882,7 @@
       <c r="N692" s="4"/>
       <c r="O692" s="4"/>
     </row>
-    <row r="693" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="693" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
@@ -11878,7 +11895,7 @@
       <c r="N693" s="4"/>
       <c r="O693" s="4"/>
     </row>
-    <row r="694" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="694" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
@@ -11891,7 +11908,7 @@
       <c r="N694" s="4"/>
       <c r="O694" s="4"/>
     </row>
-    <row r="695" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="695" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
@@ -11904,7 +11921,7 @@
       <c r="N695" s="4"/>
       <c r="O695" s="4"/>
     </row>
-    <row r="696" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="696" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
@@ -11917,7 +11934,7 @@
       <c r="N696" s="4"/>
       <c r="O696" s="4"/>
     </row>
-    <row r="697" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="697" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
@@ -11930,7 +11947,7 @@
       <c r="N697" s="4"/>
       <c r="O697" s="4"/>
     </row>
-    <row r="698" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="698" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
@@ -11943,7 +11960,7 @@
       <c r="N698" s="4"/>
       <c r="O698" s="4"/>
     </row>
-    <row r="699" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="699" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
@@ -11956,7 +11973,7 @@
       <c r="N699" s="4"/>
       <c r="O699" s="4"/>
     </row>
-    <row r="700" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="700" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
@@ -11969,7 +11986,7 @@
       <c r="N700" s="4"/>
       <c r="O700" s="4"/>
     </row>
-    <row r="701" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="701" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
@@ -11982,7 +11999,7 @@
       <c r="N701" s="4"/>
       <c r="O701" s="4"/>
     </row>
-    <row r="702" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="702" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
@@ -11995,7 +12012,7 @@
       <c r="N702" s="4"/>
       <c r="O702" s="4"/>
     </row>
-    <row r="703" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="703" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
@@ -12008,7 +12025,7 @@
       <c r="N703" s="4"/>
       <c r="O703" s="4"/>
     </row>
-    <row r="704" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="704" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
@@ -12021,7 +12038,7 @@
       <c r="N704" s="4"/>
       <c r="O704" s="4"/>
     </row>
-    <row r="705" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="705" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
@@ -12034,7 +12051,7 @@
       <c r="N705" s="4"/>
       <c r="O705" s="4"/>
     </row>
-    <row r="706" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="706" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
@@ -12047,7 +12064,7 @@
       <c r="N706" s="4"/>
       <c r="O706" s="4"/>
     </row>
-    <row r="707" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="707" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
@@ -12060,7 +12077,7 @@
       <c r="N707" s="4"/>
       <c r="O707" s="4"/>
     </row>
-    <row r="708" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="708" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
@@ -12073,7 +12090,7 @@
       <c r="N708" s="4"/>
       <c r="O708" s="4"/>
     </row>
-    <row r="709" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="709" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
@@ -12086,7 +12103,7 @@
       <c r="N709" s="4"/>
       <c r="O709" s="4"/>
     </row>
-    <row r="710" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="710" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
@@ -12099,7 +12116,7 @@
       <c r="N710" s="4"/>
       <c r="O710" s="4"/>
     </row>
-    <row r="711" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="711" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
@@ -12112,7 +12129,7 @@
       <c r="N711" s="4"/>
       <c r="O711" s="4"/>
     </row>
-    <row r="712" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="712" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
@@ -12125,7 +12142,7 @@
       <c r="N712" s="4"/>
       <c r="O712" s="4"/>
     </row>
-    <row r="713" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="713" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
@@ -12138,7 +12155,7 @@
       <c r="N713" s="4"/>
       <c r="O713" s="4"/>
     </row>
-    <row r="714" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="714" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
@@ -12151,7 +12168,7 @@
       <c r="N714" s="4"/>
       <c r="O714" s="4"/>
     </row>
-    <row r="715" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="715" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
@@ -12164,7 +12181,7 @@
       <c r="N715" s="4"/>
       <c r="O715" s="4"/>
     </row>
-    <row r="716" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="716" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
@@ -12177,7 +12194,7 @@
       <c r="N716" s="4"/>
       <c r="O716" s="4"/>
     </row>
-    <row r="717" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="717" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
@@ -12190,7 +12207,7 @@
       <c r="N717" s="4"/>
       <c r="O717" s="4"/>
     </row>
-    <row r="718" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="718" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
@@ -12203,7 +12220,7 @@
       <c r="N718" s="4"/>
       <c r="O718" s="4"/>
     </row>
-    <row r="719" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="719" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
@@ -12216,7 +12233,7 @@
       <c r="N719" s="4"/>
       <c r="O719" s="4"/>
     </row>
-    <row r="720" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="720" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
@@ -12229,7 +12246,7 @@
       <c r="N720" s="4"/>
       <c r="O720" s="4"/>
     </row>
-    <row r="721" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="721" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
@@ -12242,7 +12259,7 @@
       <c r="N721" s="4"/>
       <c r="O721" s="4"/>
     </row>
-    <row r="722" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="722" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
@@ -12255,7 +12272,7 @@
       <c r="N722" s="4"/>
       <c r="O722" s="4"/>
     </row>
-    <row r="723" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="723" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
@@ -12268,7 +12285,7 @@
       <c r="N723" s="4"/>
       <c r="O723" s="4"/>
     </row>
-    <row r="724" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="724" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
@@ -12281,7 +12298,7 @@
       <c r="N724" s="4"/>
       <c r="O724" s="4"/>
     </row>
-    <row r="725" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="725" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
@@ -12294,7 +12311,7 @@
       <c r="N725" s="4"/>
       <c r="O725" s="4"/>
     </row>
-    <row r="726" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="726" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
@@ -12307,7 +12324,7 @@
       <c r="N726" s="4"/>
       <c r="O726" s="4"/>
     </row>
-    <row r="727" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="727" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
@@ -12320,7 +12337,7 @@
       <c r="N727" s="4"/>
       <c r="O727" s="4"/>
     </row>
-    <row r="728" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="728" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
@@ -12333,7 +12350,7 @@
       <c r="N728" s="4"/>
       <c r="O728" s="4"/>
     </row>
-    <row r="729" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="729" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
@@ -12346,7 +12363,7 @@
       <c r="N729" s="4"/>
       <c r="O729" s="4"/>
     </row>
-    <row r="730" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="730" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
@@ -12359,7 +12376,7 @@
       <c r="N730" s="4"/>
       <c r="O730" s="4"/>
     </row>
-    <row r="731" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="731" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
@@ -12372,7 +12389,7 @@
       <c r="N731" s="4"/>
       <c r="O731" s="4"/>
     </row>
-    <row r="732" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="732" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
@@ -12385,7 +12402,7 @@
       <c r="N732" s="4"/>
       <c r="O732" s="4"/>
     </row>
-    <row r="733" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="733" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
@@ -12398,7 +12415,7 @@
       <c r="N733" s="4"/>
       <c r="O733" s="4"/>
     </row>
-    <row r="734" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="734" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
@@ -12411,7 +12428,7 @@
       <c r="N734" s="4"/>
       <c r="O734" s="4"/>
     </row>
-    <row r="735" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="735" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
@@ -12424,7 +12441,7 @@
       <c r="N735" s="4"/>
       <c r="O735" s="4"/>
     </row>
-    <row r="736" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="736" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
@@ -12437,7 +12454,7 @@
       <c r="N736" s="4"/>
       <c r="O736" s="4"/>
     </row>
-    <row r="737" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="737" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
@@ -12450,7 +12467,7 @@
       <c r="N737" s="4"/>
       <c r="O737" s="4"/>
     </row>
-    <row r="738" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="738" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
@@ -12463,7 +12480,7 @@
       <c r="N738" s="4"/>
       <c r="O738" s="4"/>
     </row>
-    <row r="739" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="739" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
@@ -12476,7 +12493,7 @@
       <c r="N739" s="4"/>
       <c r="O739" s="4"/>
     </row>
-    <row r="740" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="740" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
@@ -12489,7 +12506,7 @@
       <c r="N740" s="4"/>
       <c r="O740" s="4"/>
     </row>
-    <row r="741" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="741" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
@@ -12502,7 +12519,7 @@
       <c r="N741" s="4"/>
       <c r="O741" s="4"/>
     </row>
-    <row r="742" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="742" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
@@ -12515,7 +12532,7 @@
       <c r="N742" s="4"/>
       <c r="O742" s="4"/>
     </row>
-    <row r="743" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="743" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
@@ -12528,7 +12545,7 @@
       <c r="N743" s="4"/>
       <c r="O743" s="4"/>
     </row>
-    <row r="744" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="744" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
@@ -12541,7 +12558,7 @@
       <c r="N744" s="4"/>
       <c r="O744" s="4"/>
     </row>
-    <row r="745" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="745" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
@@ -12554,7 +12571,7 @@
       <c r="N745" s="4"/>
       <c r="O745" s="4"/>
     </row>
-    <row r="746" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="746" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
@@ -12567,7 +12584,7 @@
       <c r="N746" s="4"/>
       <c r="O746" s="4"/>
     </row>
-    <row r="747" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="747" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
@@ -12580,7 +12597,7 @@
       <c r="N747" s="4"/>
       <c r="O747" s="4"/>
     </row>
-    <row r="748" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="748" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
@@ -12593,7 +12610,7 @@
       <c r="N748" s="4"/>
       <c r="O748" s="4"/>
     </row>
-    <row r="749" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="749" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
@@ -12606,7 +12623,7 @@
       <c r="N749" s="4"/>
       <c r="O749" s="4"/>
     </row>
-    <row r="750" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="750" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
@@ -12619,7 +12636,7 @@
       <c r="N750" s="4"/>
       <c r="O750" s="4"/>
     </row>
-    <row r="751" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="751" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
@@ -12632,7 +12649,7 @@
       <c r="N751" s="4"/>
       <c r="O751" s="4"/>
     </row>
-    <row r="752" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="752" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
@@ -12645,7 +12662,7 @@
       <c r="N752" s="4"/>
       <c r="O752" s="4"/>
     </row>
-    <row r="753" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="753" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
@@ -12658,7 +12675,7 @@
       <c r="N753" s="4"/>
       <c r="O753" s="4"/>
     </row>
-    <row r="754" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="754" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
@@ -12671,7 +12688,7 @@
       <c r="N754" s="4"/>
       <c r="O754" s="4"/>
     </row>
-    <row r="755" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="755" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
@@ -12684,7 +12701,7 @@
       <c r="N755" s="4"/>
       <c r="O755" s="4"/>
     </row>
-    <row r="756" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="756" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
@@ -12697,7 +12714,7 @@
       <c r="N756" s="4"/>
       <c r="O756" s="4"/>
     </row>
-    <row r="757" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="757" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
@@ -12710,7 +12727,7 @@
       <c r="N757" s="4"/>
       <c r="O757" s="4"/>
     </row>
-    <row r="758" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="758" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
@@ -12723,7 +12740,7 @@
       <c r="N758" s="4"/>
       <c r="O758" s="4"/>
     </row>
-    <row r="759" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="759" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
@@ -12736,7 +12753,7 @@
       <c r="N759" s="4"/>
       <c r="O759" s="4"/>
     </row>
-    <row r="760" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="760" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
@@ -12749,7 +12766,7 @@
       <c r="N760" s="4"/>
       <c r="O760" s="4"/>
     </row>
-    <row r="761" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="761" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
@@ -12762,7 +12779,7 @@
       <c r="N761" s="4"/>
       <c r="O761" s="4"/>
     </row>
-    <row r="762" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="762" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
@@ -12775,7 +12792,7 @@
       <c r="N762" s="4"/>
       <c r="O762" s="4"/>
     </row>
-    <row r="763" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="763" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
@@ -12788,7 +12805,7 @@
       <c r="N763" s="4"/>
       <c r="O763" s="4"/>
     </row>
-    <row r="764" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="764" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
@@ -12801,7 +12818,7 @@
       <c r="N764" s="4"/>
       <c r="O764" s="4"/>
     </row>
-    <row r="765" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="765" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
@@ -12814,7 +12831,7 @@
       <c r="N765" s="4"/>
       <c r="O765" s="4"/>
     </row>
-    <row r="766" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="766" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
@@ -12827,7 +12844,7 @@
       <c r="N766" s="4"/>
       <c r="O766" s="4"/>
     </row>
-    <row r="767" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="767" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
@@ -12840,7 +12857,7 @@
       <c r="N767" s="4"/>
       <c r="O767" s="4"/>
     </row>
-    <row r="768" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="768" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
@@ -12853,7 +12870,7 @@
       <c r="N768" s="4"/>
       <c r="O768" s="4"/>
     </row>
-    <row r="769" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="769" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
@@ -12866,7 +12883,7 @@
       <c r="N769" s="4"/>
       <c r="O769" s="4"/>
     </row>
-    <row r="770" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="770" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
@@ -12879,7 +12896,7 @@
       <c r="N770" s="4"/>
       <c r="O770" s="4"/>
     </row>
-    <row r="771" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="771" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
@@ -12892,7 +12909,7 @@
       <c r="N771" s="4"/>
       <c r="O771" s="4"/>
     </row>
-    <row r="772" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="772" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
@@ -12905,7 +12922,7 @@
       <c r="N772" s="4"/>
       <c r="O772" s="4"/>
     </row>
-    <row r="773" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="773" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
@@ -12918,7 +12935,7 @@
       <c r="N773" s="4"/>
       <c r="O773" s="4"/>
     </row>
-    <row r="774" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="774" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
@@ -12931,7 +12948,7 @@
       <c r="N774" s="4"/>
       <c r="O774" s="4"/>
     </row>
-    <row r="775" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="775" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
@@ -12944,7 +12961,7 @@
       <c r="N775" s="4"/>
       <c r="O775" s="4"/>
     </row>
-    <row r="776" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="776" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
@@ -12957,7 +12974,7 @@
       <c r="N776" s="4"/>
       <c r="O776" s="4"/>
     </row>
-    <row r="777" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="777" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
@@ -12970,7 +12987,7 @@
       <c r="N777" s="4"/>
       <c r="O777" s="4"/>
     </row>
-    <row r="778" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="778" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
@@ -12983,7 +13000,7 @@
       <c r="N778" s="4"/>
       <c r="O778" s="4"/>
     </row>
-    <row r="779" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="779" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
@@ -12996,7 +13013,7 @@
       <c r="N779" s="4"/>
       <c r="O779" s="4"/>
     </row>
-    <row r="780" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="780" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
@@ -13009,7 +13026,7 @@
       <c r="N780" s="4"/>
       <c r="O780" s="4"/>
     </row>
-    <row r="781" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="781" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
@@ -13022,7 +13039,7 @@
       <c r="N781" s="4"/>
       <c r="O781" s="4"/>
     </row>
-    <row r="782" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="782" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
@@ -13035,7 +13052,7 @@
       <c r="N782" s="4"/>
       <c r="O782" s="4"/>
     </row>
-    <row r="783" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="783" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
@@ -13048,7 +13065,7 @@
       <c r="N783" s="4"/>
       <c r="O783" s="4"/>
     </row>
-    <row r="784" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="784" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
@@ -13061,7 +13078,7 @@
       <c r="N784" s="4"/>
       <c r="O784" s="4"/>
     </row>
-    <row r="785" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="785" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
@@ -13074,7 +13091,7 @@
       <c r="N785" s="4"/>
       <c r="O785" s="4"/>
     </row>
-    <row r="786" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="786" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
@@ -13087,7 +13104,7 @@
       <c r="N786" s="4"/>
       <c r="O786" s="4"/>
     </row>
-    <row r="787" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="787" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
@@ -13100,7 +13117,7 @@
       <c r="N787" s="4"/>
       <c r="O787" s="4"/>
     </row>
-    <row r="788" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="788" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
@@ -13113,7 +13130,7 @@
       <c r="N788" s="4"/>
       <c r="O788" s="4"/>
     </row>
-    <row r="789" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="789" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
@@ -13126,7 +13143,7 @@
       <c r="N789" s="4"/>
       <c r="O789" s="4"/>
     </row>
-    <row r="790" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="790" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
@@ -13139,7 +13156,7 @@
       <c r="N790" s="4"/>
       <c r="O790" s="4"/>
     </row>
-    <row r="791" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="791" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
@@ -13152,7 +13169,7 @@
       <c r="N791" s="4"/>
       <c r="O791" s="4"/>
     </row>
-    <row r="792" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="792" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
@@ -13165,7 +13182,7 @@
       <c r="N792" s="4"/>
       <c r="O792" s="4"/>
     </row>
-    <row r="793" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="793" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
@@ -13178,7 +13195,7 @@
       <c r="N793" s="4"/>
       <c r="O793" s="4"/>
     </row>
-    <row r="794" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="794" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
@@ -13191,7 +13208,7 @@
       <c r="N794" s="4"/>
       <c r="O794" s="4"/>
     </row>
-    <row r="795" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="795" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
@@ -13204,7 +13221,7 @@
       <c r="N795" s="4"/>
       <c r="O795" s="4"/>
     </row>
-    <row r="796" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="796" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
@@ -13217,7 +13234,7 @@
       <c r="N796" s="4"/>
       <c r="O796" s="4"/>
     </row>
-    <row r="797" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="797" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
@@ -13230,7 +13247,7 @@
       <c r="N797" s="4"/>
       <c r="O797" s="4"/>
     </row>
-    <row r="798" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="798" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
@@ -13243,7 +13260,7 @@
       <c r="N798" s="4"/>
       <c r="O798" s="4"/>
     </row>
-    <row r="799" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="799" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
@@ -13256,7 +13273,7 @@
       <c r="N799" s="4"/>
       <c r="O799" s="4"/>
     </row>
-    <row r="800" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="800" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
@@ -13269,7 +13286,7 @@
       <c r="N800" s="4"/>
       <c r="O800" s="4"/>
     </row>
-    <row r="801" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="801" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
@@ -13282,7 +13299,7 @@
       <c r="N801" s="4"/>
       <c r="O801" s="4"/>
     </row>
-    <row r="802" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="802" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
@@ -13295,7 +13312,7 @@
       <c r="N802" s="4"/>
       <c r="O802" s="4"/>
     </row>
-    <row r="803" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="803" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
@@ -13308,7 +13325,7 @@
       <c r="N803" s="4"/>
       <c r="O803" s="4"/>
     </row>
-    <row r="804" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="804" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
@@ -13321,7 +13338,7 @@
       <c r="N804" s="4"/>
       <c r="O804" s="4"/>
     </row>
-    <row r="805" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="805" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
@@ -13334,7 +13351,7 @@
       <c r="N805" s="4"/>
       <c r="O805" s="4"/>
     </row>
-    <row r="806" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="806" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
@@ -13347,7 +13364,7 @@
       <c r="N806" s="4"/>
       <c r="O806" s="4"/>
     </row>
-    <row r="807" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="807" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
@@ -13360,7 +13377,7 @@
       <c r="N807" s="4"/>
       <c r="O807" s="4"/>
     </row>
-    <row r="808" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="808" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
@@ -13373,7 +13390,7 @@
       <c r="N808" s="4"/>
       <c r="O808" s="4"/>
     </row>
-    <row r="809" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="809" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
@@ -13386,7 +13403,7 @@
       <c r="N809" s="4"/>
       <c r="O809" s="4"/>
     </row>
-    <row r="810" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="810" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
@@ -13399,7 +13416,7 @@
       <c r="N810" s="4"/>
       <c r="O810" s="4"/>
     </row>
-    <row r="811" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="811" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
@@ -13412,7 +13429,7 @@
       <c r="N811" s="4"/>
       <c r="O811" s="4"/>
     </row>
-    <row r="812" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="812" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
@@ -13425,7 +13442,7 @@
       <c r="N812" s="4"/>
       <c r="O812" s="4"/>
     </row>
-    <row r="813" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="813" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
@@ -13438,7 +13455,7 @@
       <c r="N813" s="4"/>
       <c r="O813" s="4"/>
     </row>
-    <row r="814" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="814" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
@@ -13451,7 +13468,7 @@
       <c r="N814" s="4"/>
       <c r="O814" s="4"/>
     </row>
-    <row r="815" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="815" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
@@ -13464,7 +13481,7 @@
       <c r="N815" s="4"/>
       <c r="O815" s="4"/>
     </row>
-    <row r="816" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="816" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
@@ -13477,7 +13494,7 @@
       <c r="N816" s="4"/>
       <c r="O816" s="4"/>
     </row>
-    <row r="817" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="817" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
@@ -13490,7 +13507,7 @@
       <c r="N817" s="4"/>
       <c r="O817" s="4"/>
     </row>
-    <row r="818" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="818" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
@@ -13503,7 +13520,7 @@
       <c r="N818" s="4"/>
       <c r="O818" s="4"/>
     </row>
-    <row r="819" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="819" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
@@ -13516,7 +13533,7 @@
       <c r="N819" s="4"/>
       <c r="O819" s="4"/>
     </row>
-    <row r="820" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="820" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
@@ -13529,7 +13546,7 @@
       <c r="N820" s="4"/>
       <c r="O820" s="4"/>
     </row>
-    <row r="821" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="821" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
@@ -13542,7 +13559,7 @@
       <c r="N821" s="4"/>
       <c r="O821" s="4"/>
     </row>
-    <row r="822" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="822" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
@@ -13555,7 +13572,7 @@
       <c r="N822" s="4"/>
       <c r="O822" s="4"/>
     </row>
-    <row r="823" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="823" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
@@ -13568,7 +13585,7 @@
       <c r="N823" s="4"/>
       <c r="O823" s="4"/>
     </row>
-    <row r="824" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="824" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
@@ -13581,7 +13598,7 @@
       <c r="N824" s="4"/>
       <c r="O824" s="4"/>
     </row>
-    <row r="825" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="825" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
@@ -13594,7 +13611,7 @@
       <c r="N825" s="4"/>
       <c r="O825" s="4"/>
     </row>
-    <row r="826" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="826" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
@@ -13607,7 +13624,7 @@
       <c r="N826" s="4"/>
       <c r="O826" s="4"/>
     </row>
-    <row r="827" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="827" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
@@ -13620,7 +13637,7 @@
       <c r="N827" s="4"/>
       <c r="O827" s="4"/>
     </row>
-    <row r="828" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="828" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
@@ -13633,7 +13650,7 @@
       <c r="N828" s="4"/>
       <c r="O828" s="4"/>
     </row>
-    <row r="829" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="829" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
@@ -13646,7 +13663,7 @@
       <c r="N829" s="4"/>
       <c r="O829" s="4"/>
     </row>
-    <row r="830" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="830" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
@@ -13659,7 +13676,7 @@
       <c r="N830" s="4"/>
       <c r="O830" s="4"/>
     </row>
-    <row r="831" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="831" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
@@ -13672,7 +13689,7 @@
       <c r="N831" s="4"/>
       <c r="O831" s="4"/>
     </row>
-    <row r="832" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="832" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
@@ -13685,7 +13702,7 @@
       <c r="N832" s="4"/>
       <c r="O832" s="4"/>
     </row>
-    <row r="833" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="833" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
@@ -13698,7 +13715,7 @@
       <c r="N833" s="4"/>
       <c r="O833" s="4"/>
     </row>
-    <row r="834" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="834" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
@@ -13711,7 +13728,7 @@
       <c r="N834" s="4"/>
       <c r="O834" s="4"/>
     </row>
-    <row r="835" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="835" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
@@ -13724,7 +13741,7 @@
       <c r="N835" s="4"/>
       <c r="O835" s="4"/>
     </row>
-    <row r="836" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="836" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
@@ -13737,7 +13754,7 @@
       <c r="N836" s="4"/>
       <c r="O836" s="4"/>
     </row>
-    <row r="837" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="837" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
@@ -13750,7 +13767,7 @@
       <c r="N837" s="4"/>
       <c r="O837" s="4"/>
     </row>
-    <row r="838" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="838" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
@@ -13763,7 +13780,7 @@
       <c r="N838" s="4"/>
       <c r="O838" s="4"/>
     </row>
-    <row r="839" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="839" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
@@ -13776,7 +13793,7 @@
       <c r="N839" s="4"/>
       <c r="O839" s="4"/>
     </row>
-    <row r="840" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="840" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
@@ -13789,7 +13806,7 @@
       <c r="N840" s="4"/>
       <c r="O840" s="4"/>
     </row>
-    <row r="841" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="841" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
@@ -13802,7 +13819,7 @@
       <c r="N841" s="4"/>
       <c r="O841" s="4"/>
     </row>
-    <row r="842" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="842" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
@@ -13815,7 +13832,7 @@
       <c r="N842" s="4"/>
       <c r="O842" s="4"/>
     </row>
-    <row r="843" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="843" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
@@ -13828,7 +13845,7 @@
       <c r="N843" s="4"/>
       <c r="O843" s="4"/>
     </row>
-    <row r="844" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="844" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
@@ -13841,7 +13858,7 @@
       <c r="N844" s="4"/>
       <c r="O844" s="4"/>
     </row>
-    <row r="845" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="845" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
@@ -13854,7 +13871,7 @@
       <c r="N845" s="4"/>
       <c r="O845" s="4"/>
     </row>
-    <row r="846" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="846" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
@@ -13867,7 +13884,7 @@
       <c r="N846" s="4"/>
       <c r="O846" s="4"/>
     </row>
-    <row r="847" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="847" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
@@ -13880,7 +13897,7 @@
       <c r="N847" s="4"/>
       <c r="O847" s="4"/>
     </row>
-    <row r="848" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="848" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
@@ -13893,7 +13910,7 @@
       <c r="N848" s="4"/>
       <c r="O848" s="4"/>
     </row>
-    <row r="849" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="849" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
@@ -13906,7 +13923,7 @@
       <c r="N849" s="4"/>
       <c r="O849" s="4"/>
     </row>
-    <row r="850" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="850" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
@@ -13919,7 +13936,7 @@
       <c r="N850" s="4"/>
       <c r="O850" s="4"/>
     </row>
-    <row r="851" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="851" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
@@ -13932,7 +13949,7 @@
       <c r="N851" s="4"/>
       <c r="O851" s="4"/>
     </row>
-    <row r="852" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="852" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
@@ -13945,7 +13962,7 @@
       <c r="N852" s="4"/>
       <c r="O852" s="4"/>
     </row>
-    <row r="853" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="853" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
@@ -13958,7 +13975,7 @@
       <c r="N853" s="4"/>
       <c r="O853" s="4"/>
     </row>
-    <row r="854" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="854" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
@@ -13971,7 +13988,7 @@
       <c r="N854" s="4"/>
       <c r="O854" s="4"/>
     </row>
-    <row r="855" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="855" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
@@ -13984,7 +14001,7 @@
       <c r="N855" s="4"/>
       <c r="O855" s="4"/>
     </row>
-    <row r="856" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="856" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
@@ -13997,7 +14014,7 @@
       <c r="N856" s="4"/>
       <c r="O856" s="4"/>
     </row>
-    <row r="857" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="857" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
@@ -14010,7 +14027,7 @@
       <c r="N857" s="4"/>
       <c r="O857" s="4"/>
     </row>
-    <row r="858" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="858" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
@@ -14023,7 +14040,7 @@
       <c r="N858" s="4"/>
       <c r="O858" s="4"/>
     </row>
-    <row r="859" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="859" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
@@ -14036,7 +14053,7 @@
       <c r="N859" s="4"/>
       <c r="O859" s="4"/>
     </row>
-    <row r="860" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="860" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
@@ -14049,7 +14066,7 @@
       <c r="N860" s="4"/>
       <c r="O860" s="4"/>
     </row>
-    <row r="861" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="861" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
@@ -14062,7 +14079,7 @@
       <c r="N861" s="4"/>
       <c r="O861" s="4"/>
     </row>
-    <row r="862" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="862" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
@@ -14075,7 +14092,7 @@
       <c r="N862" s="4"/>
       <c r="O862" s="4"/>
     </row>
-    <row r="863" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="863" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
@@ -14088,7 +14105,7 @@
       <c r="N863" s="4"/>
       <c r="O863" s="4"/>
     </row>
-    <row r="864" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="864" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
@@ -14101,7 +14118,7 @@
       <c r="N864" s="4"/>
       <c r="O864" s="4"/>
     </row>
-    <row r="865" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="865" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
@@ -14114,7 +14131,7 @@
       <c r="N865" s="4"/>
       <c r="O865" s="4"/>
     </row>
-    <row r="866" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="866" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
@@ -14127,7 +14144,7 @@
       <c r="N866" s="4"/>
       <c r="O866" s="4"/>
     </row>
-    <row r="867" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="867" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
@@ -14140,7 +14157,7 @@
       <c r="N867" s="4"/>
       <c r="O867" s="4"/>
     </row>
-    <row r="868" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="868" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
@@ -14153,7 +14170,7 @@
       <c r="N868" s="4"/>
       <c r="O868" s="4"/>
     </row>
-    <row r="869" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="869" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
@@ -14166,7 +14183,7 @@
       <c r="N869" s="4"/>
       <c r="O869" s="4"/>
     </row>
-    <row r="870" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="870" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
@@ -14179,7 +14196,7 @@
       <c r="N870" s="4"/>
       <c r="O870" s="4"/>
     </row>
-    <row r="871" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="871" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
@@ -14192,7 +14209,7 @@
       <c r="N871" s="4"/>
       <c r="O871" s="4"/>
     </row>
-    <row r="872" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="872" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
@@ -14205,7 +14222,7 @@
       <c r="N872" s="4"/>
       <c r="O872" s="4"/>
     </row>
-    <row r="873" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="873" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
@@ -14218,7 +14235,7 @@
       <c r="N873" s="4"/>
       <c r="O873" s="4"/>
     </row>
-    <row r="874" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="874" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
@@ -14231,7 +14248,7 @@
       <c r="N874" s="4"/>
       <c r="O874" s="4"/>
     </row>
-    <row r="875" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="875" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
@@ -14244,7 +14261,7 @@
       <c r="N875" s="4"/>
       <c r="O875" s="4"/>
     </row>
-    <row r="876" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="876" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
@@ -14257,7 +14274,7 @@
       <c r="N876" s="4"/>
       <c r="O876" s="4"/>
     </row>
-    <row r="877" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="877" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
@@ -14270,7 +14287,7 @@
       <c r="N877" s="4"/>
       <c r="O877" s="4"/>
     </row>
-    <row r="878" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="878" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
@@ -14283,7 +14300,7 @@
       <c r="N878" s="4"/>
       <c r="O878" s="4"/>
     </row>
-    <row r="879" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="879" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
@@ -14296,7 +14313,7 @@
       <c r="N879" s="4"/>
       <c r="O879" s="4"/>
     </row>
-    <row r="880" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="880" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
@@ -14309,7 +14326,7 @@
       <c r="N880" s="4"/>
       <c r="O880" s="4"/>
     </row>
-    <row r="881" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="881" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
@@ -14322,7 +14339,7 @@
       <c r="N881" s="4"/>
       <c r="O881" s="4"/>
     </row>
-    <row r="882" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="882" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
@@ -14335,7 +14352,7 @@
       <c r="N882" s="4"/>
       <c r="O882" s="4"/>
     </row>
-    <row r="883" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="883" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
@@ -14348,7 +14365,7 @@
       <c r="N883" s="4"/>
       <c r="O883" s="4"/>
     </row>
-    <row r="884" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="884" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
@@ -14361,7 +14378,7 @@
       <c r="N884" s="4"/>
       <c r="O884" s="4"/>
     </row>
-    <row r="885" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="885" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
@@ -14374,7 +14391,7 @@
       <c r="N885" s="4"/>
       <c r="O885" s="4"/>
     </row>
-    <row r="886" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="886" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
@@ -14387,7 +14404,7 @@
       <c r="N886" s="4"/>
       <c r="O886" s="4"/>
     </row>
-    <row r="887" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="887" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
@@ -14400,7 +14417,7 @@
       <c r="N887" s="4"/>
       <c r="O887" s="4"/>
     </row>
-    <row r="888" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="888" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
@@ -14413,7 +14430,7 @@
       <c r="N888" s="4"/>
       <c r="O888" s="4"/>
     </row>
-    <row r="889" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="889" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
@@ -14426,7 +14443,7 @@
       <c r="N889" s="4"/>
       <c r="O889" s="4"/>
     </row>
-    <row r="890" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="890" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
@@ -14439,7 +14456,7 @@
       <c r="N890" s="4"/>
       <c r="O890" s="4"/>
     </row>
-    <row r="891" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="891" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
@@ -14452,7 +14469,7 @@
       <c r="N891" s="4"/>
       <c r="O891" s="4"/>
     </row>
-    <row r="892" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="892" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
@@ -14465,7 +14482,7 @@
       <c r="N892" s="4"/>
       <c r="O892" s="4"/>
     </row>
-    <row r="893" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="893" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
@@ -14478,7 +14495,7 @@
       <c r="N893" s="4"/>
       <c r="O893" s="4"/>
     </row>
-    <row r="894" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="894" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
@@ -14491,7 +14508,7 @@
       <c r="N894" s="4"/>
       <c r="O894" s="4"/>
     </row>
-    <row r="895" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="895" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
@@ -14504,7 +14521,7 @@
       <c r="N895" s="4"/>
       <c r="O895" s="4"/>
     </row>
-    <row r="896" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="896" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
@@ -14517,7 +14534,7 @@
       <c r="N896" s="4"/>
       <c r="O896" s="4"/>
     </row>
-    <row r="897" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="897" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
@@ -14530,7 +14547,7 @@
       <c r="N897" s="4"/>
       <c r="O897" s="4"/>
     </row>
-    <row r="898" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="898" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
@@ -14543,7 +14560,7 @@
       <c r="N898" s="4"/>
       <c r="O898" s="4"/>
     </row>
-    <row r="899" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="899" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
@@ -14556,7 +14573,7 @@
       <c r="N899" s="4"/>
       <c r="O899" s="4"/>
     </row>
-    <row r="900" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="900" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
@@ -14569,7 +14586,7 @@
       <c r="N900" s="4"/>
       <c r="O900" s="4"/>
     </row>
-    <row r="901" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="901" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
@@ -14582,7 +14599,7 @@
       <c r="N901" s="4"/>
       <c r="O901" s="4"/>
     </row>
-    <row r="902" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="902" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
@@ -14595,7 +14612,7 @@
       <c r="N902" s="4"/>
       <c r="O902" s="4"/>
     </row>
-    <row r="903" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="903" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
@@ -14608,7 +14625,7 @@
       <c r="N903" s="4"/>
       <c r="O903" s="4"/>
     </row>
-    <row r="904" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="904" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
@@ -14621,7 +14638,7 @@
       <c r="N904" s="4"/>
       <c r="O904" s="4"/>
     </row>
-    <row r="905" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="905" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
@@ -14634,7 +14651,7 @@
       <c r="N905" s="4"/>
       <c r="O905" s="4"/>
     </row>
-    <row r="906" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="906" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
@@ -14647,7 +14664,7 @@
       <c r="N906" s="4"/>
       <c r="O906" s="4"/>
     </row>
-    <row r="907" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="907" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
@@ -14660,7 +14677,7 @@
       <c r="N907" s="4"/>
       <c r="O907" s="4"/>
     </row>
-    <row r="908" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="908" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
@@ -14673,7 +14690,7 @@
       <c r="N908" s="4"/>
       <c r="O908" s="4"/>
     </row>
-    <row r="909" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="909" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
@@ -14686,7 +14703,7 @@
       <c r="N909" s="4"/>
       <c r="O909" s="4"/>
     </row>
-    <row r="910" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="910" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
@@ -14699,7 +14716,7 @@
       <c r="N910" s="4"/>
       <c r="O910" s="4"/>
     </row>
-    <row r="911" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="911" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
@@ -14712,7 +14729,7 @@
       <c r="N911" s="4"/>
       <c r="O911" s="4"/>
     </row>
-    <row r="912" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="912" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
@@ -14725,7 +14742,7 @@
       <c r="N912" s="4"/>
       <c r="O912" s="4"/>
     </row>
-    <row r="913" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="913" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
@@ -14738,7 +14755,7 @@
       <c r="N913" s="4"/>
       <c r="O913" s="4"/>
     </row>
-    <row r="914" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="914" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
@@ -14751,7 +14768,7 @@
       <c r="N914" s="4"/>
       <c r="O914" s="4"/>
     </row>
-    <row r="915" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="915" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
@@ -14764,7 +14781,7 @@
       <c r="N915" s="4"/>
       <c r="O915" s="4"/>
     </row>
-    <row r="916" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="916" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
@@ -14777,7 +14794,7 @@
       <c r="N916" s="4"/>
       <c r="O916" s="4"/>
     </row>
-    <row r="917" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="917" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
@@ -14790,7 +14807,7 @@
       <c r="N917" s="4"/>
       <c r="O917" s="4"/>
     </row>
-    <row r="918" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="918" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
@@ -14803,7 +14820,7 @@
       <c r="N918" s="4"/>
       <c r="O918" s="4"/>
     </row>
-    <row r="919" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="919" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
@@ -14816,7 +14833,7 @@
       <c r="N919" s="4"/>
       <c r="O919" s="4"/>
     </row>
-    <row r="920" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="920" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
@@ -14829,7 +14846,7 @@
       <c r="N920" s="4"/>
       <c r="O920" s="4"/>
     </row>
-    <row r="921" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="921" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
@@ -14842,7 +14859,7 @@
       <c r="N921" s="4"/>
       <c r="O921" s="4"/>
     </row>
-    <row r="922" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="922" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
@@ -14855,7 +14872,7 @@
       <c r="N922" s="4"/>
       <c r="O922" s="4"/>
     </row>
-    <row r="923" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="923" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
@@ -14868,7 +14885,7 @@
       <c r="N923" s="4"/>
       <c r="O923" s="4"/>
     </row>
-    <row r="924" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="924" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
@@ -14881,7 +14898,7 @@
       <c r="N924" s="4"/>
       <c r="O924" s="4"/>
     </row>
-    <row r="925" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="925" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
@@ -14894,7 +14911,7 @@
       <c r="N925" s="4"/>
       <c r="O925" s="4"/>
     </row>
-    <row r="926" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="926" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
@@ -14907,7 +14924,7 @@
       <c r="N926" s="4"/>
       <c r="O926" s="4"/>
     </row>
-    <row r="927" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="927" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
@@ -14920,7 +14937,7 @@
       <c r="N927" s="4"/>
       <c r="O927" s="4"/>
     </row>
-    <row r="928" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="928" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
@@ -14933,7 +14950,7 @@
       <c r="N928" s="4"/>
       <c r="O928" s="4"/>
     </row>
-    <row r="929" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="929" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
@@ -14946,7 +14963,7 @@
       <c r="N929" s="4"/>
       <c r="O929" s="4"/>
     </row>
-    <row r="930" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="930" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
@@ -14959,7 +14976,7 @@
       <c r="N930" s="4"/>
       <c r="O930" s="4"/>
     </row>
-    <row r="931" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="931" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
@@ -14972,7 +14989,7 @@
       <c r="N931" s="4"/>
       <c r="O931" s="4"/>
     </row>
-    <row r="932" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="932" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
@@ -14985,7 +15002,7 @@
       <c r="N932" s="4"/>
       <c r="O932" s="4"/>
     </row>
-    <row r="933" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="933" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
@@ -14998,7 +15015,7 @@
       <c r="N933" s="4"/>
       <c r="O933" s="4"/>
     </row>
-    <row r="934" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="934" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
@@ -15011,7 +15028,7 @@
       <c r="N934" s="4"/>
       <c r="O934" s="4"/>
     </row>
-    <row r="935" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="935" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
@@ -15024,7 +15041,7 @@
       <c r="N935" s="4"/>
       <c r="O935" s="4"/>
     </row>
-    <row r="936" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="936" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
@@ -15037,7 +15054,7 @@
       <c r="N936" s="4"/>
       <c r="O936" s="4"/>
     </row>
-    <row r="937" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="937" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
@@ -15050,7 +15067,7 @@
       <c r="N937" s="4"/>
       <c r="O937" s="4"/>
     </row>
-    <row r="938" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="938" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
@@ -15063,7 +15080,7 @@
       <c r="N938" s="4"/>
       <c r="O938" s="4"/>
     </row>
-    <row r="939" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="939" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
@@ -15076,7 +15093,7 @@
       <c r="N939" s="4"/>
       <c r="O939" s="4"/>
     </row>
-    <row r="940" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="940" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
@@ -15089,7 +15106,7 @@
       <c r="N940" s="4"/>
       <c r="O940" s="4"/>
     </row>
-    <row r="941" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="941" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
@@ -15102,7 +15119,7 @@
       <c r="N941" s="4"/>
       <c r="O941" s="4"/>
     </row>
-    <row r="942" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="942" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
@@ -15115,7 +15132,7 @@
       <c r="N942" s="4"/>
       <c r="O942" s="4"/>
     </row>
-    <row r="943" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="943" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
@@ -15128,7 +15145,7 @@
       <c r="N943" s="4"/>
       <c r="O943" s="4"/>
     </row>
-    <row r="944" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="944" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
@@ -15141,7 +15158,7 @@
       <c r="N944" s="4"/>
       <c r="O944" s="4"/>
     </row>
-    <row r="945" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="945" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
@@ -15154,7 +15171,7 @@
       <c r="N945" s="4"/>
       <c r="O945" s="4"/>
     </row>
-    <row r="946" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="946" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
@@ -15167,7 +15184,7 @@
       <c r="N946" s="4"/>
       <c r="O946" s="4"/>
     </row>
-    <row r="947" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="947" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
@@ -15180,7 +15197,7 @@
       <c r="N947" s="4"/>
       <c r="O947" s="4"/>
     </row>
-    <row r="948" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="948" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
@@ -15193,7 +15210,7 @@
       <c r="N948" s="4"/>
       <c r="O948" s="4"/>
     </row>
-    <row r="949" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="949" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
@@ -15206,7 +15223,7 @@
       <c r="N949" s="4"/>
       <c r="O949" s="4"/>
     </row>
-    <row r="950" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="950" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
@@ -15219,7 +15236,7 @@
       <c r="N950" s="4"/>
       <c r="O950" s="4"/>
     </row>
-    <row r="951" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="951" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
@@ -15232,7 +15249,7 @@
       <c r="N951" s="4"/>
       <c r="O951" s="4"/>
     </row>
-    <row r="952" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="952" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
@@ -15245,7 +15262,7 @@
       <c r="N952" s="4"/>
       <c r="O952" s="4"/>
     </row>
-    <row r="953" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="953" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
@@ -15258,7 +15275,7 @@
       <c r="N953" s="4"/>
       <c r="O953" s="4"/>
     </row>
-    <row r="954" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="954" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
@@ -15271,7 +15288,7 @@
       <c r="N954" s="4"/>
       <c r="O954" s="4"/>
     </row>
-    <row r="955" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="955" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
@@ -15284,7 +15301,7 @@
       <c r="N955" s="4"/>
       <c r="O955" s="4"/>
     </row>
-    <row r="956" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="956" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
@@ -15297,7 +15314,7 @@
       <c r="N956" s="4"/>
       <c r="O956" s="4"/>
     </row>
-    <row r="957" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="957" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
@@ -15310,7 +15327,7 @@
       <c r="N957" s="4"/>
       <c r="O957" s="4"/>
     </row>
-    <row r="958" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="958" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
@@ -15323,7 +15340,7 @@
       <c r="N958" s="4"/>
       <c r="O958" s="4"/>
     </row>
-    <row r="959" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="959" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
@@ -15336,7 +15353,7 @@
       <c r="N959" s="4"/>
       <c r="O959" s="4"/>
     </row>
-    <row r="960" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="960" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
@@ -15349,7 +15366,7 @@
       <c r="N960" s="4"/>
       <c r="O960" s="4"/>
     </row>
-    <row r="961" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="961" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
@@ -15362,7 +15379,7 @@
       <c r="N961" s="4"/>
       <c r="O961" s="4"/>
     </row>
-    <row r="962" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="962" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
@@ -15375,7 +15392,7 @@
       <c r="N962" s="4"/>
       <c r="O962" s="4"/>
     </row>
-    <row r="963" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="963" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
@@ -15388,7 +15405,7 @@
       <c r="N963" s="4"/>
       <c r="O963" s="4"/>
     </row>
-    <row r="964" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="964" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
@@ -15401,7 +15418,7 @@
       <c r="N964" s="4"/>
       <c r="O964" s="4"/>
     </row>
-    <row r="965" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="965" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
@@ -15414,7 +15431,7 @@
       <c r="N965" s="4"/>
       <c r="O965" s="4"/>
     </row>
-    <row r="966" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="966" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
@@ -15427,7 +15444,7 @@
       <c r="N966" s="4"/>
       <c r="O966" s="4"/>
     </row>
-    <row r="967" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="967" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
@@ -15440,7 +15457,7 @@
       <c r="N967" s="4"/>
       <c r="O967" s="4"/>
     </row>
-    <row r="968" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="968" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
@@ -15453,7 +15470,7 @@
       <c r="N968" s="4"/>
       <c r="O968" s="4"/>
     </row>
-    <row r="969" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="969" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
@@ -15466,7 +15483,7 @@
       <c r="N969" s="4"/>
       <c r="O969" s="4"/>
     </row>
-    <row r="970" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="970" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
@@ -15479,7 +15496,7 @@
       <c r="N970" s="4"/>
       <c r="O970" s="4"/>
     </row>
-    <row r="971" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="971" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
@@ -15492,7 +15509,7 @@
       <c r="N971" s="4"/>
       <c r="O971" s="4"/>
     </row>
-    <row r="972" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="972" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
@@ -15505,7 +15522,7 @@
       <c r="N972" s="4"/>
       <c r="O972" s="4"/>
     </row>
-    <row r="973" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="973" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
@@ -15518,7 +15535,7 @@
       <c r="N973" s="4"/>
       <c r="O973" s="4"/>
     </row>
-    <row r="974" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="974" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
@@ -15531,7 +15548,7 @@
       <c r="N974" s="4"/>
       <c r="O974" s="4"/>
     </row>
-    <row r="975" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="975" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
@@ -15544,7 +15561,7 @@
       <c r="N975" s="4"/>
       <c r="O975" s="4"/>
     </row>
-    <row r="976" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="976" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
@@ -15557,7 +15574,7 @@
       <c r="N976" s="4"/>
       <c r="O976" s="4"/>
     </row>
-    <row r="977" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="977" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
@@ -15570,7 +15587,7 @@
       <c r="N977" s="4"/>
       <c r="O977" s="4"/>
     </row>
-    <row r="978" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="978" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
@@ -15583,7 +15600,7 @@
       <c r="N978" s="4"/>
       <c r="O978" s="4"/>
     </row>
-    <row r="979" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="979" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
@@ -15596,7 +15613,7 @@
       <c r="N979" s="4"/>
       <c r="O979" s="4"/>
     </row>
-    <row r="980" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="980" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
@@ -15609,7 +15626,7 @@
       <c r="N980" s="4"/>
       <c r="O980" s="4"/>
     </row>
-    <row r="981" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="981" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
@@ -15622,7 +15639,7 @@
       <c r="N981" s="4"/>
       <c r="O981" s="4"/>
     </row>
-    <row r="982" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="982" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
@@ -15635,7 +15652,7 @@
       <c r="N982" s="4"/>
       <c r="O982" s="4"/>
     </row>
-    <row r="983" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="983" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
@@ -15648,7 +15665,7 @@
       <c r="N983" s="4"/>
       <c r="O983" s="4"/>
     </row>
-    <row r="984" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="984" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
@@ -15661,7 +15678,7 @@
       <c r="N984" s="4"/>
       <c r="O984" s="4"/>
     </row>
-    <row r="985" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="985" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
@@ -15674,7 +15691,7 @@
       <c r="N985" s="4"/>
       <c r="O985" s="4"/>
     </row>
-    <row r="986" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="986" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
@@ -15687,7 +15704,7 @@
       <c r="N986" s="4"/>
       <c r="O986" s="4"/>
     </row>
-    <row r="987" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="987" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
@@ -15700,7 +15717,7 @@
       <c r="N987" s="4"/>
       <c r="O987" s="4"/>
     </row>
-    <row r="988" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="988" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
@@ -15713,7 +15730,7 @@
       <c r="N988" s="4"/>
       <c r="O988" s="4"/>
     </row>
-    <row r="989" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="989" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
@@ -15726,7 +15743,7 @@
       <c r="N989" s="4"/>
       <c r="O989" s="4"/>
     </row>
-    <row r="990" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="990" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
@@ -15739,7 +15756,7 @@
       <c r="N990" s="4"/>
       <c r="O990" s="4"/>
     </row>
-    <row r="991" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="991" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
@@ -15752,7 +15769,7 @@
       <c r="N991" s="4"/>
       <c r="O991" s="4"/>
     </row>
-    <row r="992" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="992" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
@@ -15765,7 +15782,7 @@
       <c r="N992" s="4"/>
       <c r="O992" s="4"/>
     </row>
-    <row r="993" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="993" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
@@ -15778,7 +15795,7 @@
       <c r="N993" s="4"/>
       <c r="O993" s="4"/>
     </row>
-    <row r="994" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="994" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
@@ -15791,7 +15808,7 @@
       <c r="N994" s="4"/>
       <c r="O994" s="4"/>
     </row>
-    <row r="995" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="995" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
@@ -15804,7 +15821,7 @@
       <c r="N995" s="4"/>
       <c r="O995" s="4"/>
     </row>
-    <row r="996" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="996" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
@@ -15817,7 +15834,7 @@
       <c r="N996" s="4"/>
       <c r="O996" s="4"/>
     </row>
-    <row r="997" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="997" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
@@ -15830,7 +15847,7 @@
       <c r="N997" s="4"/>
       <c r="O997" s="4"/>
     </row>
-    <row r="998" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="998" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
@@ -15843,7 +15860,7 @@
       <c r="N998" s="4"/>
       <c r="O998" s="4"/>
     </row>
-    <row r="999" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="999" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
@@ -15856,7 +15873,7 @@
       <c r="N999" s="4"/>
       <c r="O999" s="4"/>
     </row>
-    <row r="1000" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="1000" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
@@ -15870,7 +15887,6 @@
       <c r="O1000" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O66"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>